--- a/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.554986733927564</v>
+        <v>3.554986733927719</v>
       </c>
       <c r="D2">
-        <v>5.784529729472838</v>
+        <v>5.784529729472704</v>
       </c>
       <c r="E2">
         <v>31.51924917214419</v>
       </c>
       <c r="F2">
-        <v>36.5788878838082</v>
+        <v>36.57888788380775</v>
       </c>
       <c r="G2">
-        <v>30.21399117139866</v>
+        <v>30.2139911713983</v>
       </c>
       <c r="H2">
-        <v>27.94057260722404</v>
+        <v>27.94057260722365</v>
       </c>
       <c r="I2">
-        <v>22.99140238212319</v>
+        <v>22.99140238212321</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.64265257199151</v>
+        <v>24.64265257199155</v>
       </c>
       <c r="L2">
         <v>105.1408046241991</v>
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.284816883113854</v>
+        <v>3.284816883113845</v>
       </c>
       <c r="D3">
-        <v>5.183766509920265</v>
+        <v>5.183766509920384</v>
       </c>
       <c r="E3">
-        <v>28.56359583681787</v>
+        <v>28.56359583681789</v>
       </c>
       <c r="F3">
-        <v>31.17302590120416</v>
+        <v>31.17302590120439</v>
       </c>
       <c r="G3">
-        <v>25.86243918482917</v>
+        <v>25.86243918482937</v>
       </c>
       <c r="H3">
-        <v>23.85930477120283</v>
+        <v>23.859304771203</v>
       </c>
       <c r="I3">
-        <v>20.70047138643558</v>
+        <v>20.7004713864356</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.29517875296366</v>
+        <v>22.29517875296367</v>
       </c>
       <c r="L3">
-        <v>95.83328674585007</v>
+        <v>95.83328674585024</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.121130549619639</v>
+        <v>3.121130549619632</v>
       </c>
       <c r="D4">
-        <v>4.834372830333098</v>
+        <v>4.834372830333257</v>
       </c>
       <c r="E4">
-        <v>26.82008231891848</v>
+        <v>26.8200823189185</v>
       </c>
       <c r="F4">
-        <v>28.196326774398</v>
+        <v>28.19632677439814</v>
       </c>
       <c r="G4">
-        <v>23.4421234326846</v>
+        <v>23.44212343268475</v>
       </c>
       <c r="H4">
-        <v>21.59031475798854</v>
+        <v>21.59031475798869</v>
       </c>
       <c r="I4">
-        <v>19.36868325836454</v>
+        <v>19.36868325836461</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20.91674536752026</v>
+        <v>20.91674536752029</v>
       </c>
       <c r="L4">
-        <v>90.25284562555113</v>
+        <v>90.25284562555119</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.05437920422226</v>
+        <v>3.054379204222339</v>
       </c>
       <c r="D5">
-        <v>4.694568208190411</v>
+        <v>4.694568208190468</v>
       </c>
       <c r="E5">
-        <v>26.1160821318066</v>
+        <v>26.1160821318067</v>
       </c>
       <c r="F5">
-        <v>27.04446427744665</v>
+        <v>27.04446427744653</v>
       </c>
       <c r="G5">
-        <v>22.49903416336984</v>
+        <v>22.49903416336978</v>
       </c>
       <c r="H5">
-        <v>20.70635557807081</v>
+        <v>20.70635557807073</v>
       </c>
       <c r="I5">
-        <v>18.83478680393658</v>
+        <v>18.83478680393664</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>20.36138580471117</v>
+        <v>20.36138580471128</v>
       </c>
       <c r="L5">
-        <v>87.98294011770881</v>
+        <v>87.98294011770912</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.043279632411989</v>
+        <v>3.043279632412015</v>
       </c>
       <c r="D6">
-        <v>4.671460423288025</v>
+        <v>4.671460423287868</v>
       </c>
       <c r="E6">
-        <v>25.99933856251638</v>
+        <v>25.99933856251648</v>
       </c>
       <c r="F6">
-        <v>26.85639676004726</v>
+        <v>26.85639676004682</v>
       </c>
       <c r="G6">
-        <v>22.34463952891322</v>
+        <v>22.34463952891285</v>
       </c>
       <c r="H6">
-        <v>20.56164944076899</v>
+        <v>20.56164944076861</v>
       </c>
       <c r="I6">
-        <v>18.74645837506199</v>
+        <v>18.74645837506207</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20.26935656775729</v>
+        <v>20.26935656775737</v>
       </c>
       <c r="L6">
-        <v>87.60565516958061</v>
+        <v>87.6056551695807</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.120231110329284</v>
+        <v>3.120231110329356</v>
       </c>
       <c r="D7">
-        <v>4.832479256690329</v>
+        <v>4.832479256690298</v>
       </c>
       <c r="E7">
-        <v>26.81057284994843</v>
+        <v>26.81057284994836</v>
       </c>
       <c r="F7">
-        <v>28.1805683591528</v>
+        <v>28.18056835915313</v>
       </c>
       <c r="G7">
-        <v>23.42924892329291</v>
+        <v>23.42924892329316</v>
       </c>
       <c r="H7">
-        <v>21.57824686543568</v>
+        <v>21.57824686543589</v>
       </c>
       <c r="I7">
-        <v>19.36145707777039</v>
+        <v>19.36145707777034</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.90923912883349</v>
+        <v>20.90923912883348</v>
       </c>
       <c r="L7">
-        <v>90.22224534195009</v>
+        <v>90.22224534194999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.460905939305268</v>
+        <v>3.460905939305175</v>
       </c>
       <c r="D8">
-        <v>5.571522087353736</v>
+        <v>5.571522087353637</v>
       </c>
       <c r="E8">
-        <v>30.47628019374085</v>
+        <v>30.47628019374077</v>
       </c>
       <c r="F8">
-        <v>34.62364853958275</v>
+        <v>34.62364853958258</v>
       </c>
       <c r="G8">
-        <v>28.64527861062729</v>
+        <v>28.64527861062714</v>
       </c>
       <c r="H8">
-        <v>26.46900561764165</v>
+        <v>26.46900561764151</v>
       </c>
       <c r="I8">
-        <v>22.17802038423244</v>
+        <v>22.17802038423234</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>23.8126794849202</v>
+        <v>23.81267948492011</v>
       </c>
       <c r="L8">
-        <v>101.8803050194218</v>
+        <v>101.8803050194216</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D9">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E9">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F9">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G9">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H9">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I9">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L9">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D10">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E10">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F10">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G10">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H10">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I10">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L10">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D11">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E11">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F11">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G11">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H11">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I11">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L11">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D12">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E12">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F12">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G12">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H12">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I12">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L12">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D13">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E13">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F13">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G13">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H13">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I13">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L13">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D14">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E14">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F14">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G14">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H14">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I14">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L14">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D15">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E15">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F15">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G15">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H15">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I15">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L15">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D16">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E16">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F16">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G16">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H16">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I16">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L16">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D17">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E17">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F17">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G17">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H17">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I17">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L17">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D18">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E18">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F18">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G18">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H18">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I18">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L18">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D19">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E19">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F19">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G19">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H19">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I19">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L19">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D20">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E20">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F20">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G20">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H20">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I20">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L20">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D21">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E21">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F21">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G21">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H21">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I21">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L21">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D22">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E22">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F22">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G22">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H22">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I22">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L22">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D23">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E23">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F23">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G23">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H23">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I23">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L23">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D24">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E24">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F24">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G24">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H24">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I24">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L24">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.216636297522788</v>
+        <v>4.216636297522999</v>
       </c>
       <c r="D25">
-        <v>7.455310086275545</v>
+        <v>7.45531008627555</v>
       </c>
       <c r="E25">
-        <v>39.67856690806855</v>
+        <v>39.67856690806856</v>
       </c>
       <c r="F25">
-        <v>53.22011827125453</v>
+        <v>53.22011827125505</v>
       </c>
       <c r="G25">
-        <v>43.42470165649623</v>
+        <v>43.42470165649663</v>
       </c>
       <c r="H25">
-        <v>40.34988411452242</v>
+        <v>40.34988411452276</v>
       </c>
       <c r="I25">
-        <v>29.55832821470772</v>
+        <v>29.55832821470774</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>31.20239808552931</v>
+        <v>31.20239808552936</v>
       </c>
       <c r="L25">
-        <v>129.4756281935046</v>
+        <v>129.4756281935048</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.554986733927719</v>
+        <v>3.554986733927564</v>
       </c>
       <c r="D2">
-        <v>5.784529729472704</v>
+        <v>5.784529729472838</v>
       </c>
       <c r="E2">
         <v>31.51924917214419</v>
       </c>
       <c r="F2">
-        <v>36.57888788380775</v>
+        <v>36.5788878838082</v>
       </c>
       <c r="G2">
-        <v>30.2139911713983</v>
+        <v>30.21399117139866</v>
       </c>
       <c r="H2">
-        <v>27.94057260722365</v>
+        <v>27.94057260722404</v>
       </c>
       <c r="I2">
-        <v>22.99140238212321</v>
+        <v>22.99140238212319</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.64265257199155</v>
+        <v>24.64265257199151</v>
       </c>
       <c r="L2">
         <v>105.1408046241991</v>
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.284816883113845</v>
+        <v>3.284816883113854</v>
       </c>
       <c r="D3">
-        <v>5.183766509920384</v>
+        <v>5.183766509920265</v>
       </c>
       <c r="E3">
-        <v>28.56359583681789</v>
+        <v>28.56359583681787</v>
       </c>
       <c r="F3">
-        <v>31.17302590120439</v>
+        <v>31.17302590120416</v>
       </c>
       <c r="G3">
-        <v>25.86243918482937</v>
+        <v>25.86243918482917</v>
       </c>
       <c r="H3">
-        <v>23.859304771203</v>
+        <v>23.85930477120283</v>
       </c>
       <c r="I3">
-        <v>20.7004713864356</v>
+        <v>20.70047138643558</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.29517875296367</v>
+        <v>22.29517875296366</v>
       </c>
       <c r="L3">
-        <v>95.83328674585024</v>
+        <v>95.83328674585007</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.121130549619632</v>
+        <v>3.121130549619639</v>
       </c>
       <c r="D4">
-        <v>4.834372830333257</v>
+        <v>4.834372830333098</v>
       </c>
       <c r="E4">
-        <v>26.8200823189185</v>
+        <v>26.82008231891848</v>
       </c>
       <c r="F4">
-        <v>28.19632677439814</v>
+        <v>28.196326774398</v>
       </c>
       <c r="G4">
-        <v>23.44212343268475</v>
+        <v>23.4421234326846</v>
       </c>
       <c r="H4">
-        <v>21.59031475798869</v>
+        <v>21.59031475798854</v>
       </c>
       <c r="I4">
-        <v>19.36868325836461</v>
+        <v>19.36868325836454</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20.91674536752029</v>
+        <v>20.91674536752026</v>
       </c>
       <c r="L4">
-        <v>90.25284562555119</v>
+        <v>90.25284562555113</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.054379204222339</v>
+        <v>3.05437920422226</v>
       </c>
       <c r="D5">
-        <v>4.694568208190468</v>
+        <v>4.694568208190411</v>
       </c>
       <c r="E5">
-        <v>26.1160821318067</v>
+        <v>26.1160821318066</v>
       </c>
       <c r="F5">
-        <v>27.04446427744653</v>
+        <v>27.04446427744665</v>
       </c>
       <c r="G5">
-        <v>22.49903416336978</v>
+        <v>22.49903416336984</v>
       </c>
       <c r="H5">
-        <v>20.70635557807073</v>
+        <v>20.70635557807081</v>
       </c>
       <c r="I5">
-        <v>18.83478680393664</v>
+        <v>18.83478680393658</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>20.36138580471128</v>
+        <v>20.36138580471117</v>
       </c>
       <c r="L5">
-        <v>87.98294011770912</v>
+        <v>87.98294011770881</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.043279632412015</v>
+        <v>3.043279632411989</v>
       </c>
       <c r="D6">
-        <v>4.671460423287868</v>
+        <v>4.671460423288025</v>
       </c>
       <c r="E6">
-        <v>25.99933856251648</v>
+        <v>25.99933856251638</v>
       </c>
       <c r="F6">
-        <v>26.85639676004682</v>
+        <v>26.85639676004726</v>
       </c>
       <c r="G6">
-        <v>22.34463952891285</v>
+        <v>22.34463952891322</v>
       </c>
       <c r="H6">
-        <v>20.56164944076861</v>
+        <v>20.56164944076899</v>
       </c>
       <c r="I6">
-        <v>18.74645837506207</v>
+        <v>18.74645837506199</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20.26935656775737</v>
+        <v>20.26935656775729</v>
       </c>
       <c r="L6">
-        <v>87.6056551695807</v>
+        <v>87.60565516958061</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.120231110329356</v>
+        <v>3.120231110329284</v>
       </c>
       <c r="D7">
-        <v>4.832479256690298</v>
+        <v>4.832479256690329</v>
       </c>
       <c r="E7">
-        <v>26.81057284994836</v>
+        <v>26.81057284994843</v>
       </c>
       <c r="F7">
-        <v>28.18056835915313</v>
+        <v>28.1805683591528</v>
       </c>
       <c r="G7">
-        <v>23.42924892329316</v>
+        <v>23.42924892329291</v>
       </c>
       <c r="H7">
-        <v>21.57824686543589</v>
+        <v>21.57824686543568</v>
       </c>
       <c r="I7">
-        <v>19.36145707777034</v>
+        <v>19.36145707777039</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.90923912883348</v>
+        <v>20.90923912883349</v>
       </c>
       <c r="L7">
-        <v>90.22224534194999</v>
+        <v>90.22224534195009</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.460905939305175</v>
+        <v>3.460905939305268</v>
       </c>
       <c r="D8">
-        <v>5.571522087353637</v>
+        <v>5.571522087353736</v>
       </c>
       <c r="E8">
-        <v>30.47628019374077</v>
+        <v>30.47628019374085</v>
       </c>
       <c r="F8">
-        <v>34.62364853958258</v>
+        <v>34.62364853958275</v>
       </c>
       <c r="G8">
-        <v>28.64527861062714</v>
+        <v>28.64527861062729</v>
       </c>
       <c r="H8">
-        <v>26.46900561764151</v>
+        <v>26.46900561764165</v>
       </c>
       <c r="I8">
-        <v>22.17802038423234</v>
+        <v>22.17802038423244</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>23.81267948492011</v>
+        <v>23.8126794849202</v>
       </c>
       <c r="L8">
-        <v>101.8803050194216</v>
+        <v>101.8803050194218</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D9">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E9">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F9">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G9">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H9">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I9">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L9">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D10">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E10">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F10">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G10">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H10">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I10">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L10">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D11">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E11">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F11">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G11">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H11">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I11">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L11">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D12">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E12">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F12">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G12">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H12">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I12">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L12">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D13">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E13">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F13">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G13">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H13">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I13">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L13">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D14">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E14">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F14">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G14">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H14">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I14">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L14">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D15">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E15">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F15">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G15">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H15">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I15">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L15">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D16">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E16">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F16">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G16">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H16">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I16">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L16">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D17">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E17">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F17">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G17">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H17">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I17">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L17">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D18">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E18">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F18">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G18">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H18">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I18">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L18">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D19">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E19">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F19">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G19">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H19">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I19">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L19">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D20">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E20">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F20">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G20">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H20">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I20">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L20">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D21">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E21">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F21">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G21">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H21">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I21">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L21">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D22">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E22">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F22">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G22">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H22">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I22">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L22">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D23">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E23">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F23">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G23">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H23">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I23">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L23">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D24">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E24">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F24">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G24">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H24">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I24">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L24">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.216636297522999</v>
+        <v>4.216636297522788</v>
       </c>
       <c r="D25">
-        <v>7.45531008627555</v>
+        <v>7.455310086275545</v>
       </c>
       <c r="E25">
-        <v>39.67856690806856</v>
+        <v>39.67856690806855</v>
       </c>
       <c r="F25">
-        <v>53.22011827125505</v>
+        <v>53.22011827125453</v>
       </c>
       <c r="G25">
-        <v>43.42470165649663</v>
+        <v>43.42470165649623</v>
       </c>
       <c r="H25">
-        <v>40.34988411452276</v>
+        <v>40.34988411452242</v>
       </c>
       <c r="I25">
-        <v>29.55832821470774</v>
+        <v>29.55832821470772</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>31.20239808552936</v>
+        <v>31.20239808552931</v>
       </c>
       <c r="L25">
-        <v>129.4756281935048</v>
+        <v>129.4756281935046</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.554986733927564</v>
+        <v>3.549570877440579</v>
       </c>
       <c r="D2">
-        <v>5.784529729472838</v>
+        <v>5.777241568009375</v>
       </c>
       <c r="E2">
-        <v>31.51924917214419</v>
+        <v>31.51704621788355</v>
       </c>
       <c r="F2">
-        <v>36.5788878838082</v>
+        <v>36.54556943430292</v>
       </c>
       <c r="G2">
-        <v>30.21399117139866</v>
+        <v>30.25764053000452</v>
       </c>
       <c r="H2">
-        <v>27.94057260722404</v>
+        <v>29.1907198202328</v>
       </c>
       <c r="I2">
-        <v>22.99140238212319</v>
+        <v>27.91546341988206</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>22.99057677783552</v>
       </c>
       <c r="K2">
-        <v>24.64265257199151</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>105.1408046241991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>24.64151415153085</v>
+      </c>
+      <c r="M2">
+        <v>105.132982273438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.284816883113854</v>
+        <v>3.280184594355992</v>
       </c>
       <c r="D3">
-        <v>5.183766509920265</v>
+        <v>5.177702509179294</v>
       </c>
       <c r="E3">
-        <v>28.56359583681787</v>
+        <v>28.56202182394798</v>
       </c>
       <c r="F3">
-        <v>31.17302590120416</v>
+        <v>31.14626451987469</v>
       </c>
       <c r="G3">
-        <v>25.86243918482917</v>
+        <v>25.9011227049178</v>
       </c>
       <c r="H3">
-        <v>23.85930477120283</v>
+        <v>24.95090566327224</v>
       </c>
       <c r="I3">
-        <v>20.70047138643558</v>
+        <v>23.8390853344187</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>20.70038453628242</v>
       </c>
       <c r="K3">
-        <v>22.29517875296366</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>95.83328674585007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>22.29466416826619</v>
+      </c>
+      <c r="M3">
+        <v>95.8284198182686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.121130549619639</v>
+        <v>3.116941105158261</v>
       </c>
       <c r="D4">
-        <v>4.834372830333098</v>
+        <v>4.828960274271166</v>
       </c>
       <c r="E4">
-        <v>26.82008231891848</v>
+        <v>26.81873358456478</v>
       </c>
       <c r="F4">
-        <v>28.196326774398</v>
+        <v>28.17276247359429</v>
       </c>
       <c r="G4">
-        <v>23.4421234326846</v>
+        <v>23.4777431471993</v>
       </c>
       <c r="H4">
-        <v>21.59031475798854</v>
+        <v>22.618074188657</v>
       </c>
       <c r="I4">
-        <v>19.36868325836454</v>
+        <v>21.57248345935245</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>19.36886694324816</v>
       </c>
       <c r="K4">
-        <v>20.91674536752026</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>90.25284562555113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>20.91645617107825</v>
+      </c>
+      <c r="M4">
+        <v>90.24920719157019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.05437920422226</v>
+        <v>3.050365343457688</v>
       </c>
       <c r="D5">
-        <v>4.694568208190411</v>
+        <v>4.689406287631015</v>
       </c>
       <c r="E5">
-        <v>26.1160821318066</v>
+        <v>26.1148045256899</v>
       </c>
       <c r="F5">
-        <v>27.04446427744665</v>
+        <v>27.02207463572808</v>
       </c>
       <c r="G5">
-        <v>22.49903416336984</v>
+        <v>22.53341817890085</v>
       </c>
       <c r="H5">
-        <v>20.70635557807081</v>
+        <v>21.71595329928128</v>
       </c>
       <c r="I5">
-        <v>18.83478680393658</v>
+        <v>20.68940252173935</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>18.83505501938602</v>
       </c>
       <c r="K5">
-        <v>20.36138580471117</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>87.98294011770881</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>20.36116686193001</v>
+      </c>
+      <c r="M5">
+        <v>87.97971828272156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.043279632411989</v>
+        <v>3.03929472952247</v>
       </c>
       <c r="D6">
-        <v>4.671460423288025</v>
+        <v>4.666339426912695</v>
       </c>
       <c r="E6">
-        <v>25.99933856251638</v>
+        <v>25.99807185178954</v>
       </c>
       <c r="F6">
-        <v>26.85639676004726</v>
+        <v>26.83419590808679</v>
       </c>
       <c r="G6">
-        <v>22.34463952891322</v>
+        <v>22.37881936890297</v>
       </c>
       <c r="H6">
-        <v>20.56164944076899</v>
+        <v>21.56870075144242</v>
       </c>
       <c r="I6">
-        <v>18.74645837506199</v>
+        <v>20.54483757877378</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>18.74673942713441</v>
       </c>
       <c r="K6">
-        <v>20.26935656775729</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>87.60565516958061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>20.26914829651303</v>
+      </c>
+      <c r="M6">
+        <v>87.6024985601828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.120231110329284</v>
+        <v>3.116044049011689</v>
       </c>
       <c r="D7">
-        <v>4.832479256690329</v>
+        <v>4.827070131210674</v>
       </c>
       <c r="E7">
-        <v>26.81057284994843</v>
+        <v>26.80922514238803</v>
       </c>
       <c r="F7">
-        <v>28.1805683591528</v>
+        <v>28.15702034812796</v>
       </c>
       <c r="G7">
-        <v>23.42924892329291</v>
+        <v>23.46485190925972</v>
       </c>
       <c r="H7">
-        <v>21.57824686543568</v>
+        <v>22.60572985231397</v>
       </c>
       <c r="I7">
-        <v>19.36145707777039</v>
+        <v>21.56042774281918</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>19.3616419896917</v>
       </c>
       <c r="K7">
-        <v>20.90923912883349</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>90.22224534195009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>20.90895095227106</v>
+      </c>
+      <c r="M7">
+        <v>90.21861281234987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.460905939305268</v>
+        <v>3.455772022293519</v>
       </c>
       <c r="D8">
-        <v>5.571522087353736</v>
+        <v>5.56468543489093</v>
       </c>
       <c r="E8">
-        <v>30.47628019374085</v>
+        <v>30.47434558783628</v>
       </c>
       <c r="F8">
-        <v>34.62364853958275</v>
+        <v>34.59283226281597</v>
       </c>
       <c r="G8">
-        <v>28.64527861062729</v>
+        <v>28.6872355740217</v>
       </c>
       <c r="H8">
-        <v>26.46900561764165</v>
+        <v>27.65693912168642</v>
       </c>
       <c r="I8">
-        <v>22.17802038423244</v>
+        <v>26.44576119704523</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>22.17750572437789</v>
       </c>
       <c r="K8">
-        <v>23.8126794849202</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>101.8803050194218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>23.81180519526909</v>
+      </c>
+      <c r="M8">
+        <v>101.8736795256847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D9">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E9">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F9">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G9">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H9">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I9">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K9">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M9">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D10">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E10">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F10">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G10">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H10">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I10">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K10">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M10">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D11">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E11">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F11">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G11">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H11">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I11">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K11">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M11">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D12">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E12">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F12">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G12">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H12">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I12">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K12">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M12">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D13">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E13">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F13">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G13">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H13">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I13">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K13">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M13">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D14">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E14">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F14">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G14">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H14">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I14">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K14">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M14">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D15">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E15">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F15">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G15">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H15">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I15">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K15">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M15">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D16">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E16">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F16">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G16">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H16">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I16">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K16">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M16">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D17">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E17">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F17">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G17">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H17">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I17">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K17">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M17">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D18">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E18">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F18">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G18">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H18">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I18">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K18">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M18">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D19">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E19">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F19">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G19">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H19">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I19">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K19">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M19">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D20">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E20">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F20">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G20">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H20">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I20">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K20">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M20">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D21">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E21">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F21">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G21">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H21">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I21">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K21">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M21">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D22">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E22">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F22">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G22">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H22">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I22">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K22">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M22">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D23">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E23">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F23">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G23">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H23">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I23">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K23">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M23">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D24">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E24">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F24">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G24">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H24">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I24">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K24">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>129.4756281935046</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M24">
+        <v>129.4436372006896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.216636297522788</v>
+        <v>4.208651740774421</v>
       </c>
       <c r="D25">
-        <v>7.455310086275545</v>
+        <v>7.443094191535147</v>
       </c>
       <c r="E25">
-        <v>39.67856690806855</v>
+        <v>39.66889269663148</v>
       </c>
       <c r="F25">
-        <v>53.22011827125453</v>
+        <v>53.15223237070963</v>
       </c>
       <c r="G25">
-        <v>43.42470165649623</v>
+        <v>43.47228651244836</v>
       </c>
       <c r="H25">
-        <v>40.34988411452242</v>
+        <v>42.23530080809664</v>
       </c>
       <c r="I25">
-        <v>29.55832821470772</v>
+        <v>40.29910928503141</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>29.54997779794774</v>
       </c>
       <c r="K25">
-        <v>31.20239808552931</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>129.4756281935046</v>
+        <v>31.19452159193631</v>
+      </c>
+      <c r="M25">
+        <v>129.4436372006896</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.549570877440579</v>
+        <v>9.461475543037308</v>
       </c>
       <c r="D2">
-        <v>5.777241568009375</v>
+        <v>3.634315863668242</v>
       </c>
       <c r="E2">
-        <v>31.51704621788355</v>
+        <v>7.659803165481724</v>
       </c>
       <c r="F2">
-        <v>36.54556943430292</v>
+        <v>60.47359282804005</v>
       </c>
       <c r="G2">
-        <v>30.25764053000452</v>
+        <v>2.05559378696982</v>
       </c>
       <c r="H2">
-        <v>29.1907198202328</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>27.91546341988206</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>22.99057677783552</v>
+        <v>7.37298382850989</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>58.63199361540489</v>
       </c>
       <c r="L2">
-        <v>24.64151415153085</v>
+        <v>4.853675432549913</v>
       </c>
       <c r="M2">
-        <v>105.132982273438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>14.11782813548536</v>
+      </c>
+      <c r="O2">
+        <v>46.16927928709142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.280184594355992</v>
+        <v>9.104885029816433</v>
       </c>
       <c r="D3">
-        <v>5.177702509179294</v>
+        <v>3.360584362148612</v>
       </c>
       <c r="E3">
-        <v>28.56202182394798</v>
+        <v>7.593970068835172</v>
       </c>
       <c r="F3">
-        <v>31.14626451987469</v>
+        <v>57.3261441742971</v>
       </c>
       <c r="G3">
-        <v>25.9011227049178</v>
+        <v>2.081946494672403</v>
       </c>
       <c r="H3">
-        <v>24.95090566327224</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>23.8390853344187</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>20.70038453628242</v>
+        <v>7.330730901955943</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>54.72227558258249</v>
       </c>
       <c r="L3">
-        <v>22.29466416826619</v>
+        <v>4.905782649089032</v>
       </c>
       <c r="M3">
-        <v>95.8284198182686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.97000421321581</v>
+      </c>
+      <c r="O3">
+        <v>43.81967188008163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.116941105158261</v>
+        <v>8.89418345704042</v>
       </c>
       <c r="D4">
-        <v>4.828960274271166</v>
+        <v>3.192797534701477</v>
       </c>
       <c r="E4">
-        <v>26.81873358456478</v>
+        <v>7.559497835708442</v>
       </c>
       <c r="F4">
-        <v>28.17276247359429</v>
+        <v>55.46667827424558</v>
       </c>
       <c r="G4">
-        <v>23.4777431471993</v>
+        <v>2.098044109652775</v>
       </c>
       <c r="H4">
-        <v>22.618074188657</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>21.57248345935245</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>19.36886694324816</v>
+        <v>7.313670048014344</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>52.25716531846406</v>
       </c>
       <c r="L4">
-        <v>20.91645617107825</v>
+        <v>4.938271923368246</v>
       </c>
       <c r="M4">
-        <v>90.24920719157019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.88350710887503</v>
+      </c>
+      <c r="O4">
+        <v>42.43813404940379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.050365343457688</v>
+        <v>8.810226777261134</v>
       </c>
       <c r="D5">
-        <v>4.689406287631015</v>
+        <v>3.124271042226064</v>
       </c>
       <c r="E5">
-        <v>26.1148045256899</v>
+        <v>7.546840651954664</v>
       </c>
       <c r="F5">
-        <v>27.02207463572808</v>
+        <v>54.7256690187705</v>
       </c>
       <c r="G5">
-        <v>22.53341817890085</v>
+        <v>2.104607088700949</v>
       </c>
       <c r="H5">
-        <v>21.71595329928128</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>20.68940252173935</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>18.83505501938602</v>
+        <v>7.308743480176603</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>51.23552220088114</v>
       </c>
       <c r="L5">
-        <v>20.36116686193001</v>
+        <v>4.951675850780038</v>
       </c>
       <c r="M5">
-        <v>87.97971828272156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.84935620878961</v>
+      </c>
+      <c r="O5">
+        <v>41.88918160050535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.03929472952247</v>
+        <v>8.796396956413156</v>
       </c>
       <c r="D6">
-        <v>4.666339426912695</v>
+        <v>3.112877405578711</v>
       </c>
       <c r="E6">
-        <v>25.99807185178954</v>
+        <v>7.544820141826106</v>
       </c>
       <c r="F6">
-        <v>26.83419590808679</v>
+        <v>54.6035975723305</v>
       </c>
       <c r="G6">
-        <v>22.37881936890297</v>
+        <v>2.105697671870244</v>
       </c>
       <c r="H6">
-        <v>21.56870075144242</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>20.54483757877378</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>18.74673942713441</v>
+        <v>7.30804227761663</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>51.06482995665008</v>
       </c>
       <c r="L6">
-        <v>20.26914829651303</v>
+        <v>4.953912516826962</v>
       </c>
       <c r="M6">
-        <v>87.6024985601828</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.84375239396405</v>
+      </c>
+      <c r="O6">
+        <v>41.79884421030377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.116044049011689</v>
+        <v>8.893043657001273</v>
       </c>
       <c r="D7">
-        <v>4.827070131210674</v>
+        <v>3.191874240462831</v>
       </c>
       <c r="E7">
-        <v>26.80922514238803</v>
+        <v>7.559321633826752</v>
       </c>
       <c r="F7">
-        <v>28.15702034812796</v>
+        <v>55.45661878640728</v>
       </c>
       <c r="G7">
-        <v>23.46485190925972</v>
+        <v>2.098132579304784</v>
       </c>
       <c r="H7">
-        <v>22.60572985231397</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>21.56042774281918</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>19.3616419896917</v>
+        <v>7.313595656479426</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>52.24345710657597</v>
       </c>
       <c r="L7">
-        <v>20.90895095227106</v>
+        <v>4.938451980754204</v>
       </c>
       <c r="M7">
-        <v>90.21861281234987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.88304206535724</v>
+      </c>
+      <c r="O7">
+        <v>42.43067534478846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.455772022293519</v>
+        <v>9.336693387057529</v>
       </c>
       <c r="D8">
-        <v>5.56468543489093</v>
+        <v>3.539723627604944</v>
       </c>
       <c r="E8">
-        <v>30.47434558783628</v>
+        <v>7.635799841109135</v>
       </c>
       <c r="F8">
-        <v>34.59283226281597</v>
+        <v>59.37201949844157</v>
       </c>
       <c r="G8">
-        <v>28.6872355740217</v>
+        <v>2.064713340626079</v>
       </c>
       <c r="H8">
-        <v>27.65693912168642</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>26.44576119704523</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>22.17750572437789</v>
+        <v>7.356436007914323</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>57.29665063727695</v>
       </c>
       <c r="L8">
-        <v>23.81180519526909</v>
+        <v>4.871565553962219</v>
       </c>
       <c r="M8">
-        <v>101.8736795256847</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>14.06598865213699</v>
+      </c>
+      <c r="O8">
+        <v>45.34550821569332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.208651740774421</v>
+        <v>10.28342040557384</v>
       </c>
       <c r="D9">
-        <v>7.443094191535147</v>
+        <v>4.23748164008857</v>
       </c>
       <c r="E9">
-        <v>39.66889269663148</v>
+        <v>7.838960490984445</v>
       </c>
       <c r="F9">
-        <v>53.15223237070963</v>
+        <v>67.74223416322738</v>
       </c>
       <c r="G9">
-        <v>43.47228651244836</v>
+        <v>1.997126773111173</v>
       </c>
       <c r="H9">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>29.54997779794774</v>
+        <v>7.522453831879998</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>67.04531552888811</v>
       </c>
       <c r="L9">
-        <v>31.19452159193631</v>
+        <v>4.742031745226766</v>
       </c>
       <c r="M9">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>14.45725572046454</v>
+      </c>
+      <c r="O9">
+        <v>51.63582910229173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.208651740774421</v>
+        <v>11.05064584665391</v>
       </c>
       <c r="D10">
-        <v>7.443094191535147</v>
+        <v>4.786110942002954</v>
       </c>
       <c r="E10">
-        <v>39.66889269663148</v>
+        <v>8.032016336239149</v>
       </c>
       <c r="F10">
-        <v>53.15223237070963</v>
+        <v>74.62298623075651</v>
       </c>
       <c r="G10">
-        <v>43.47228651244836</v>
+        <v>1.943517820970447</v>
       </c>
       <c r="H10">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>29.54997779794774</v>
+        <v>7.71571628515369</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>74.21969227447126</v>
       </c>
       <c r="L10">
-        <v>31.19452159193631</v>
+        <v>4.64341932713047</v>
       </c>
       <c r="M10">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>14.76194197551613</v>
+      </c>
+      <c r="O10">
+        <v>56.97709432022518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.208651740774421</v>
+        <v>11.42514666147038</v>
       </c>
       <c r="D11">
-        <v>7.443094191535147</v>
+        <v>5.053184674710575</v>
       </c>
       <c r="E11">
-        <v>39.66889269663148</v>
+        <v>8.133367524461905</v>
       </c>
       <c r="F11">
-        <v>53.15223237070963</v>
+        <v>78.16437237535794</v>
       </c>
       <c r="G11">
-        <v>43.47228651244836</v>
+        <v>1.917299810181049</v>
       </c>
       <c r="H11">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>29.54997779794774</v>
+        <v>7.826390070451421</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>77.50996771091478</v>
       </c>
       <c r="L11">
-        <v>31.19452159193631</v>
+        <v>4.596224158919251</v>
       </c>
       <c r="M11">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>14.90330153889726</v>
+      </c>
+      <c r="O11">
+        <v>59.78055540712687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.208651740774421</v>
+        <v>11.57202293004312</v>
       </c>
       <c r="D12">
-        <v>7.443094191535147</v>
+        <v>5.158147807572573</v>
       </c>
       <c r="E12">
-        <v>39.66889269663148</v>
+        <v>8.174226565140126</v>
       </c>
       <c r="F12">
-        <v>53.15223237070963</v>
+        <v>79.55254578560007</v>
       </c>
       <c r="G12">
-        <v>43.47228651244836</v>
+        <v>1.90697783259348</v>
       </c>
       <c r="H12">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>29.54997779794774</v>
+        <v>7.872519324202057</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>78.76872618185729</v>
       </c>
       <c r="L12">
-        <v>31.19452159193631</v>
+        <v>4.577804402642736</v>
       </c>
       <c r="M12">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>14.95708145943092</v>
+      </c>
+      <c r="O12">
+        <v>60.8783716788819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.208651740774421</v>
+        <v>11.54013517601225</v>
       </c>
       <c r="D13">
-        <v>7.443094191535147</v>
+        <v>5.135343806078374</v>
       </c>
       <c r="E13">
-        <v>39.66889269663148</v>
+        <v>8.165305236109276</v>
       </c>
       <c r="F13">
-        <v>53.15223237070963</v>
+        <v>79.25117373998781</v>
       </c>
       <c r="G13">
-        <v>43.47228651244836</v>
+        <v>1.909221147674153</v>
       </c>
       <c r="H13">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>29.54997779794774</v>
+        <v>7.862377007757984</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>78.49686833840821</v>
       </c>
       <c r="L13">
-        <v>31.19452159193631</v>
+        <v>4.581800303823456</v>
       </c>
       <c r="M13">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>14.94549114228797</v>
+      </c>
+      <c r="O13">
+        <v>60.64008350450499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.208651740774421</v>
+        <v>11.4371182350069</v>
       </c>
       <c r="D14">
-        <v>7.443094191535147</v>
+        <v>5.061733492961228</v>
       </c>
       <c r="E14">
-        <v>39.66889269663148</v>
+        <v>8.136675353296486</v>
       </c>
       <c r="F14">
-        <v>53.15223237070963</v>
+        <v>78.27752574959609</v>
       </c>
       <c r="G14">
-        <v>43.47228651244836</v>
+        <v>1.916459481954382</v>
       </c>
       <c r="H14">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>29.54997779794774</v>
+        <v>7.830093599434604</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>77.61320250409344</v>
       </c>
       <c r="L14">
-        <v>31.19452159193631</v>
+        <v>4.594721318002907</v>
       </c>
       <c r="M14">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>14.90772217618041</v>
+      </c>
+      <c r="O14">
+        <v>59.87006241991097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.208651740774421</v>
+        <v>11.3747300305047</v>
       </c>
       <c r="D15">
-        <v>7.443094191535147</v>
+        <v>5.01719336390385</v>
       </c>
       <c r="E15">
-        <v>39.66889269663148</v>
+        <v>8.11948175672207</v>
       </c>
       <c r="F15">
-        <v>53.15223237070963</v>
+        <v>77.68782151779425</v>
       </c>
       <c r="G15">
-        <v>43.47228651244836</v>
+        <v>1.920836954181056</v>
       </c>
       <c r="H15">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>29.54997779794774</v>
+        <v>7.810903977894715</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>77.07394007258243</v>
       </c>
       <c r="L15">
-        <v>31.19452159193631</v>
+        <v>4.602556446506354</v>
       </c>
       <c r="M15">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>14.88461440623271</v>
+      </c>
+      <c r="O15">
+        <v>59.40354897675964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.208651740774421</v>
+        <v>11.02678856175027</v>
       </c>
       <c r="D16">
-        <v>7.443094191535147</v>
+        <v>4.769107945745604</v>
       </c>
       <c r="E16">
-        <v>39.66889269663148</v>
+        <v>8.025705425556904</v>
       </c>
       <c r="F16">
-        <v>53.15223237070963</v>
+        <v>74.39721542418437</v>
       </c>
       <c r="G16">
-        <v>43.47228651244836</v>
+        <v>1.945184537865194</v>
       </c>
       <c r="H16">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>29.54997779794774</v>
+        <v>7.709013399303549</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>74.00587570239765</v>
       </c>
       <c r="L16">
-        <v>31.19452159193631</v>
+        <v>4.646440617023226</v>
       </c>
       <c r="M16">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>14.75274848894006</v>
+      </c>
+      <c r="O16">
+        <v>56.79821458749219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.208651740774421</v>
+        <v>10.82066399086388</v>
       </c>
       <c r="D17">
-        <v>7.443094191535147</v>
+        <v>4.62215728027102</v>
       </c>
       <c r="E17">
-        <v>39.66889269663148</v>
+        <v>7.971953326268208</v>
       </c>
       <c r="F17">
-        <v>53.15223237070963</v>
+        <v>72.51327946956341</v>
       </c>
       <c r="G17">
-        <v>43.47228651244836</v>
+        <v>1.95957617546857</v>
       </c>
       <c r="H17">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>29.54997779794774</v>
+        <v>7.652892556609443</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>72.13572230190705</v>
       </c>
       <c r="L17">
-        <v>31.19452159193631</v>
+        <v>4.672640364927895</v>
       </c>
       <c r="M17">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>14.67247719269792</v>
+      </c>
+      <c r="O17">
+        <v>55.25079915636442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.208651740774421</v>
+        <v>10.70439366493552</v>
       </c>
       <c r="D18">
-        <v>7.443094191535147</v>
+        <v>4.53917877707203</v>
       </c>
       <c r="E18">
-        <v>39.66889269663148</v>
+        <v>7.942268103106354</v>
       </c>
       <c r="F18">
-        <v>53.15223237070963</v>
+        <v>71.47894656641165</v>
       </c>
       <c r="G18">
-        <v>43.47228651244836</v>
+        <v>1.96769178091859</v>
       </c>
       <c r="H18">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>29.54997779794774</v>
+        <v>7.622681842389017</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>71.06185423759659</v>
       </c>
       <c r="L18">
-        <v>31.19452159193631</v>
+        <v>4.687506553223136</v>
       </c>
       <c r="M18">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>14.62657848909713</v>
+      </c>
+      <c r="O18">
+        <v>54.4629007897471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.208651740774421</v>
+        <v>10.66538695653854</v>
       </c>
       <c r="D19">
-        <v>7.443094191535147</v>
+        <v>4.511317893859753</v>
       </c>
       <c r="E19">
-        <v>39.66889269663148</v>
+        <v>7.932416019358818</v>
       </c>
       <c r="F19">
-        <v>53.15223237070963</v>
+        <v>71.13218180231836</v>
       </c>
       <c r="G19">
-        <v>43.47228651244836</v>
+        <v>1.970414836488011</v>
       </c>
       <c r="H19">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>29.54997779794774</v>
+        <v>7.612785525125696</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>70.6983582352067</v>
       </c>
       <c r="L19">
-        <v>31.19452159193631</v>
+        <v>4.692510119212119</v>
       </c>
       <c r="M19">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>14.61108785287537</v>
+      </c>
+      <c r="O19">
+        <v>54.20014754915377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.208651740774421</v>
+        <v>10.84236156853075</v>
       </c>
       <c r="D20">
-        <v>7.443094191535147</v>
+        <v>4.637633026252965</v>
       </c>
       <c r="E20">
-        <v>39.66889269663148</v>
+        <v>7.977544731092665</v>
       </c>
       <c r="F20">
-        <v>53.15223237070963</v>
+        <v>72.70641991238494</v>
       </c>
       <c r="G20">
-        <v>43.47228651244836</v>
+        <v>1.958061699457156</v>
       </c>
       <c r="H20">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>29.54997779794774</v>
+        <v>7.658647023838093</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>72.33456537896555</v>
       </c>
       <c r="L20">
-        <v>31.19452159193631</v>
+        <v>4.669873631934093</v>
       </c>
       <c r="M20">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>14.68099495778425</v>
+      </c>
+      <c r="O20">
+        <v>55.41386332254352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.208651740774421</v>
+        <v>11.46722470437441</v>
       </c>
       <c r="D21">
-        <v>7.443094191535147</v>
+        <v>5.083237034007078</v>
       </c>
       <c r="E21">
-        <v>39.66889269663148</v>
+        <v>8.145011816239291</v>
       </c>
       <c r="F21">
-        <v>53.15223237070963</v>
+        <v>78.56208042546447</v>
       </c>
       <c r="G21">
-        <v>43.47228651244836</v>
+        <v>1.914345452180197</v>
       </c>
       <c r="H21">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>29.54997779794774</v>
+        <v>7.8394517767758</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>77.8723152435509</v>
       </c>
       <c r="L21">
-        <v>31.19452159193631</v>
+        <v>4.590943175942735</v>
       </c>
       <c r="M21">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>14.91881064090169</v>
+      </c>
+      <c r="O21">
+        <v>60.09513482072838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.208651740774421</v>
+        <v>11.90638613614524</v>
       </c>
       <c r="D22">
-        <v>7.443094191535147</v>
+        <v>5.397953385934639</v>
       </c>
       <c r="E22">
-        <v>39.66889269663148</v>
+        <v>8.269384107851055</v>
       </c>
       <c r="F22">
-        <v>53.15223237070963</v>
+        <v>82.71310339477932</v>
       </c>
       <c r="G22">
-        <v>43.47228651244836</v>
+        <v>1.883363189761665</v>
       </c>
       <c r="H22">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>29.54997779794774</v>
+        <v>7.983031675721064</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>81.57423785931086</v>
       </c>
       <c r="L22">
-        <v>31.19452159193631</v>
+        <v>4.535976109428408</v>
       </c>
       <c r="M22">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>15.07555044902134</v>
+      </c>
+      <c r="O22">
+        <v>63.3759249776955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.208651740774421</v>
+        <v>11.66850308911597</v>
       </c>
       <c r="D23">
-        <v>7.443094191535147</v>
+        <v>5.2272059927719</v>
       </c>
       <c r="E23">
-        <v>39.66889269663148</v>
+        <v>8.201385882674034</v>
       </c>
       <c r="F23">
-        <v>53.15223237070963</v>
+        <v>80.46439278728785</v>
       </c>
       <c r="G23">
-        <v>43.47228651244836</v>
+        <v>1.900181769075737</v>
       </c>
       <c r="H23">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>29.54997779794774</v>
+        <v>7.903631564956052</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>79.58658142144368</v>
       </c>
       <c r="L23">
-        <v>31.19452159193631</v>
+        <v>4.565723169442663</v>
       </c>
       <c r="M23">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>14.99184972926262</v>
+      </c>
+      <c r="O23">
+        <v>61.59919680807199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.208651740774421</v>
+        <v>10.83254523114108</v>
       </c>
       <c r="D24">
-        <v>7.443094191535147</v>
+        <v>4.63063184145731</v>
       </c>
       <c r="E24">
-        <v>39.66889269663148</v>
+        <v>7.975013100849448</v>
       </c>
       <c r="F24">
-        <v>53.15223237070963</v>
+        <v>72.61903524780938</v>
       </c>
       <c r="G24">
-        <v>43.47228651244836</v>
+        <v>1.958746878387533</v>
       </c>
       <c r="H24">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>29.54997779794774</v>
+        <v>7.656039096474214</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>72.24466495772174</v>
       </c>
       <c r="L24">
-        <v>31.19452159193631</v>
+        <v>4.671125069227386</v>
       </c>
       <c r="M24">
-        <v>129.4436372006896</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>14.6771432867779</v>
+      </c>
+      <c r="O24">
+        <v>55.34009600065725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.208651740774421</v>
+        <v>10.01710752048438</v>
       </c>
       <c r="D25">
-        <v>7.443094191535147</v>
+        <v>4.04482559363908</v>
       </c>
       <c r="E25">
-        <v>39.66889269663148</v>
+        <v>7.777332461832913</v>
       </c>
       <c r="F25">
-        <v>53.15223237070963</v>
+        <v>65.38398324023412</v>
       </c>
       <c r="G25">
-        <v>43.47228651244836</v>
+        <v>2.015859393416745</v>
       </c>
       <c r="H25">
-        <v>42.23530080809664</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>40.29910928503141</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>29.54997779794774</v>
+        <v>7.466909612006058</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>64.38509859803979</v>
       </c>
       <c r="L25">
-        <v>31.19452159193631</v>
+        <v>4.777276707433596</v>
       </c>
       <c r="M25">
-        <v>129.4436372006896</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>14.34814372226743</v>
+      </c>
+      <c r="O25">
+        <v>49.85702665411035</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.461475543037308</v>
+        <v>9.970829533313481</v>
       </c>
       <c r="D2">
-        <v>3.634315863668242</v>
+        <v>5.035922591813524</v>
       </c>
       <c r="E2">
-        <v>7.659803165481724</v>
+        <v>8.448846020833983</v>
       </c>
       <c r="F2">
-        <v>60.47359282804005</v>
+        <v>16.4057610017297</v>
       </c>
       <c r="G2">
-        <v>2.05559378696982</v>
+        <v>19.74634392977667</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.22465096201095</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.37298382850989</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>58.63199361540489</v>
+        <v>21.05845857510627</v>
       </c>
       <c r="L2">
-        <v>4.853675432549913</v>
+        <v>5.19705924679471</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.37016765676148</v>
       </c>
       <c r="N2">
-        <v>14.11782813548536</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>46.16927928709142</v>
+        <v>13.13163994019247</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.104885029816433</v>
+        <v>9.631948186293394</v>
       </c>
       <c r="D3">
-        <v>3.360584362148612</v>
+        <v>4.860105159519107</v>
       </c>
       <c r="E3">
-        <v>7.593970068835172</v>
+        <v>8.38074822132071</v>
       </c>
       <c r="F3">
-        <v>57.3261441742971</v>
+        <v>16.2285277312385</v>
       </c>
       <c r="G3">
-        <v>2.081946494672403</v>
+        <v>19.59969908126953</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.3439127315691</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.330730901955943</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>54.72227558258249</v>
+        <v>19.7425456643897</v>
       </c>
       <c r="L3">
-        <v>4.905782649089032</v>
+        <v>5.257014080741096</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.43256773405279</v>
       </c>
       <c r="N3">
-        <v>13.97000421321581</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>43.81967188008163</v>
+        <v>13.25411890269074</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.89418345704042</v>
+        <v>9.425364389697483</v>
       </c>
       <c r="D4">
-        <v>3.192797534701477</v>
+        <v>4.748669380360952</v>
       </c>
       <c r="E4">
-        <v>7.559497835708442</v>
+        <v>8.345575793179696</v>
       </c>
       <c r="F4">
-        <v>55.46667827424558</v>
+        <v>16.14291585597015</v>
       </c>
       <c r="G4">
-        <v>2.098044109652775</v>
+        <v>19.5506412472602</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.424515232742054</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.313670048014344</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>52.25716531846406</v>
+        <v>18.88894659920722</v>
       </c>
       <c r="L4">
-        <v>4.938271923368246</v>
+        <v>5.296096863479405</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.83010784900635</v>
       </c>
       <c r="N4">
-        <v>13.88350710887503</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>42.43813404940379</v>
+        <v>13.34755229336059</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.810226777261134</v>
+        <v>9.341677229955128</v>
       </c>
       <c r="D5">
-        <v>3.124271042226064</v>
+        <v>4.702425832878901</v>
       </c>
       <c r="E5">
-        <v>7.546840651954664</v>
+        <v>8.332876187426667</v>
       </c>
       <c r="F5">
-        <v>54.7256690187705</v>
+        <v>16.11368876405463</v>
       </c>
       <c r="G5">
-        <v>2.104607088700949</v>
+        <v>19.54049202943463</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.459132127768209</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.308743480176603</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>51.23552220088114</v>
+        <v>18.529653467168</v>
       </c>
       <c r="L5">
-        <v>4.951675850780038</v>
+        <v>5.312583922305002</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.57803202928624</v>
       </c>
       <c r="N5">
-        <v>13.84935620878961</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>41.88918160050535</v>
+        <v>13.38995233004069</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.796396956413156</v>
+        <v>9.327814789389089</v>
       </c>
       <c r="D6">
-        <v>3.112877405578711</v>
+        <v>4.694698208133401</v>
       </c>
       <c r="E6">
-        <v>7.544820141826106</v>
+        <v>8.330864956332213</v>
       </c>
       <c r="F6">
-        <v>54.6035975723305</v>
+        <v>16.10917190891964</v>
       </c>
       <c r="G6">
-        <v>2.105697671870244</v>
+        <v>19.53938680234158</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.464984852158643</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.30804227761663</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>51.06482995665008</v>
+        <v>18.46930314300207</v>
       </c>
       <c r="L6">
-        <v>4.953912516826962</v>
+        <v>5.315355153922929</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.53578387508575</v>
       </c>
       <c r="N6">
-        <v>13.84375239396405</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>41.79884421030377</v>
+        <v>13.39724665318268</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.893043657001273</v>
+        <v>9.424233574637057</v>
       </c>
       <c r="D7">
-        <v>3.191874240462831</v>
+        <v>4.748049033760863</v>
       </c>
       <c r="E7">
-        <v>7.559321633826752</v>
+        <v>8.345397958513431</v>
       </c>
       <c r="F7">
-        <v>55.45661878640728</v>
+        <v>16.142499019834</v>
       </c>
       <c r="G7">
-        <v>2.098132579304784</v>
+        <v>19.55046516553973</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.424975024911715</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.313595656479426</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>52.24345710657597</v>
+        <v>18.88414733246665</v>
       </c>
       <c r="L7">
-        <v>4.938451980754204</v>
+        <v>5.29631695724468</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.82673461703195</v>
       </c>
       <c r="N7">
-        <v>13.88304206535724</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>42.43067534478846</v>
+        <v>13.34810693837868</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.336693387057529</v>
+        <v>9.853745161791421</v>
       </c>
       <c r="D8">
-        <v>3.539723627604944</v>
+        <v>4.976048077214542</v>
       </c>
       <c r="E8">
-        <v>7.635799841109135</v>
+        <v>8.423967092034776</v>
       </c>
       <c r="F8">
-        <v>59.37201949844157</v>
+        <v>16.33973536886131</v>
       </c>
       <c r="G8">
-        <v>2.064713340626079</v>
+        <v>19.68701133385039</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.264189246358303</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.356436007914323</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>57.29665063727695</v>
+        <v>20.61421088200449</v>
       </c>
       <c r="L8">
-        <v>4.871565553962219</v>
+        <v>5.217253941473284</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>16.05252493681339</v>
       </c>
       <c r="N8">
-        <v>14.06598865213699</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>45.34550821569332</v>
+        <v>13.16992836979256</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.28342040557384</v>
+        <v>10.70287865820352</v>
       </c>
       <c r="D9">
-        <v>4.23748164008857</v>
+        <v>5.393872276318744</v>
       </c>
       <c r="E9">
-        <v>7.838960490984445</v>
+        <v>8.632167686189961</v>
       </c>
       <c r="F9">
-        <v>67.74223416322738</v>
+        <v>16.91724463223759</v>
       </c>
       <c r="G9">
-        <v>1.997126773111173</v>
+        <v>20.29782566771129</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.011511298483082</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.522453831879998</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>67.04531552888811</v>
+        <v>23.64469808469847</v>
       </c>
       <c r="L9">
-        <v>4.742031745226766</v>
+        <v>5.080742730703045</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>18.40957022589948</v>
       </c>
       <c r="N9">
-        <v>14.45725572046454</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>51.63582910229173</v>
+        <v>12.97715315365101</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.05064584665391</v>
+        <v>11.32500442829106</v>
       </c>
       <c r="D10">
-        <v>4.786110942002954</v>
+        <v>5.681141131031567</v>
       </c>
       <c r="E10">
-        <v>8.032016336239149</v>
+        <v>8.819864332278989</v>
       </c>
       <c r="F10">
-        <v>74.62298623075651</v>
+        <v>17.46493389602792</v>
       </c>
       <c r="G10">
-        <v>1.943517820970447</v>
+        <v>20.97553539526401</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.870231228647015</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.71571628515369</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>74.21969227447126</v>
+        <v>25.6514205587887</v>
       </c>
       <c r="L10">
-        <v>4.64341932713047</v>
+        <v>4.992547702941811</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>20.01576806894165</v>
       </c>
       <c r="N10">
-        <v>14.76194197551613</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>56.97709432022518</v>
+        <v>12.94777889111164</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.42514666147038</v>
+        <v>11.60663042036195</v>
       </c>
       <c r="D11">
-        <v>5.053184674710575</v>
+        <v>5.807246472337725</v>
       </c>
       <c r="E11">
-        <v>8.133367524461905</v>
+        <v>8.913100359187167</v>
       </c>
       <c r="F11">
-        <v>78.16437237535794</v>
+        <v>17.7419018437271</v>
       </c>
       <c r="G11">
-        <v>1.917299810181049</v>
+        <v>21.33643540240086</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.817097413974759</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.826390070451421</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>77.50996771091478</v>
+        <v>26.51709116005436</v>
       </c>
       <c r="L11">
-        <v>4.596224158919251</v>
+        <v>4.955257894986765</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>20.70858969212032</v>
       </c>
       <c r="N11">
-        <v>14.90330153889726</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>59.78055540712687</v>
+        <v>12.96243212991149</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.57202293004312</v>
+        <v>11.71300755522952</v>
       </c>
       <c r="D12">
-        <v>5.158147807572573</v>
+        <v>5.854321584152604</v>
       </c>
       <c r="E12">
-        <v>8.174226565140126</v>
+        <v>8.949556513523262</v>
       </c>
       <c r="F12">
-        <v>79.55254578560007</v>
+        <v>17.85083575836351</v>
       </c>
       <c r="G12">
-        <v>1.90697783259348</v>
+        <v>21.48081154632721</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.798714948422999</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.872519324202057</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>78.76872618185729</v>
+        <v>26.83816204711921</v>
       </c>
       <c r="L12">
-        <v>4.577804402642736</v>
+        <v>4.94156386713597</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>20.96556086378672</v>
       </c>
       <c r="N12">
-        <v>14.95708145943092</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>60.8783716788819</v>
+        <v>12.97230567331694</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.54013517601225</v>
+        <v>11.690110252524</v>
       </c>
       <c r="D13">
-        <v>5.135343806078374</v>
+        <v>5.844213566931315</v>
       </c>
       <c r="E13">
-        <v>8.165305236109276</v>
+        <v>8.941653588017473</v>
       </c>
       <c r="F13">
-        <v>79.25117373998781</v>
+        <v>17.82719403300766</v>
       </c>
       <c r="G13">
-        <v>1.909221147674153</v>
+        <v>21.44937287758527</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.802594356518233</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.862377007757984</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>78.49686833840821</v>
+        <v>26.76931259739774</v>
       </c>
       <c r="L13">
-        <v>4.581800303823456</v>
+        <v>4.944493800222106</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>20.91045608297627</v>
       </c>
       <c r="N13">
-        <v>14.94549114228797</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>60.64008350450499</v>
+        <v>12.96998224693626</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.4371182350069</v>
+        <v>11.61538786673928</v>
       </c>
       <c r="D14">
-        <v>5.061733492961228</v>
+        <v>5.811133066755299</v>
       </c>
       <c r="E14">
-        <v>8.136675353296486</v>
+        <v>8.916076476330407</v>
       </c>
       <c r="F14">
-        <v>78.27752574959609</v>
+        <v>17.75078245788173</v>
       </c>
       <c r="G14">
-        <v>1.916459481954382</v>
+        <v>21.34815813600803</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.8155494246785</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.830093599434604</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>77.61320250409344</v>
+        <v>26.54364062947416</v>
       </c>
       <c r="L14">
-        <v>4.594721318002907</v>
+        <v>4.954122604075564</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>20.72983845289052</v>
       </c>
       <c r="N14">
-        <v>14.90772217618041</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>59.87006241991097</v>
+        <v>12.96315608736339</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.3747300305047</v>
+        <v>11.56958142736935</v>
       </c>
       <c r="D15">
-        <v>5.01719336390385</v>
+        <v>5.790781436077428</v>
       </c>
       <c r="E15">
-        <v>8.11948175672207</v>
+        <v>8.900560058510969</v>
       </c>
       <c r="F15">
-        <v>77.68782151779425</v>
+        <v>17.70450710189607</v>
       </c>
       <c r="G15">
-        <v>1.920836954181056</v>
+        <v>21.2871687687367</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.823715360768506</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.810903977894715</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>77.07394007258243</v>
+        <v>26.40453386261636</v>
       </c>
       <c r="L15">
-        <v>4.602556446506354</v>
+        <v>4.960076732119738</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>20.6185053767665</v>
       </c>
       <c r="N15">
-        <v>14.88461440623271</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>59.40354897675964</v>
+        <v>12.95954674322203</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.02678856175027</v>
+        <v>11.30656543940214</v>
       </c>
       <c r="D16">
-        <v>4.769107945745604</v>
+        <v>5.672805964937957</v>
       </c>
       <c r="E16">
-        <v>8.025705425556904</v>
+        <v>8.813930947195944</v>
       </c>
       <c r="F16">
-        <v>74.39721542418437</v>
+        <v>17.44739803929443</v>
       </c>
       <c r="G16">
-        <v>1.945184537865194</v>
+        <v>20.95302215397736</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.873939208999056</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.709013399303549</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>74.00587570239765</v>
+        <v>25.59390104461732</v>
       </c>
       <c r="L16">
-        <v>4.646440617023226</v>
+        <v>4.99504328019685</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.96973374199295</v>
       </c>
       <c r="N16">
-        <v>14.75274848894006</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>56.79821458749219</v>
+        <v>12.94741046069899</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.82066399086388</v>
+        <v>11.14480596216529</v>
       </c>
       <c r="D17">
-        <v>4.62215728027102</v>
+        <v>5.59924441527057</v>
       </c>
       <c r="E17">
-        <v>7.971953326268208</v>
+        <v>8.762813188056429</v>
       </c>
       <c r="F17">
-        <v>72.51327946956341</v>
+        <v>17.29683816677273</v>
       </c>
       <c r="G17">
-        <v>1.95957617546857</v>
+        <v>20.76163073023761</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.907696371733013</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.652892556609443</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>72.13572230190705</v>
+        <v>25.0845463757817</v>
       </c>
       <c r="L17">
-        <v>4.672640364927895</v>
+        <v>5.017232508794116</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>19.56207906015946</v>
       </c>
       <c r="N17">
-        <v>14.67247719269792</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>55.25079915636442</v>
+        <v>12.94735316248097</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.70439366493552</v>
+        <v>11.05163946563946</v>
       </c>
       <c r="D18">
-        <v>4.53917877707203</v>
+        <v>5.556504134937119</v>
       </c>
       <c r="E18">
-        <v>7.942268103106354</v>
+        <v>8.734149584296892</v>
       </c>
       <c r="F18">
-        <v>71.47894656641165</v>
+        <v>17.21285699832336</v>
       </c>
       <c r="G18">
-        <v>1.96769178091859</v>
+        <v>20.65649422441973</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.928151921236197</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.622681842389017</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>71.06185423759659</v>
+        <v>24.78713316943613</v>
       </c>
       <c r="L18">
-        <v>4.687506553223136</v>
+        <v>5.030260283574417</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>19.32404093098085</v>
       </c>
       <c r="N18">
-        <v>14.62657848909713</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>54.4629007897471</v>
+        <v>12.94993970924868</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.66538695653854</v>
+        <v>11.02007546084032</v>
       </c>
       <c r="D19">
-        <v>4.511317893859753</v>
+        <v>5.541959906255239</v>
       </c>
       <c r="E19">
-        <v>7.932416019358818</v>
+        <v>8.72457066672526</v>
       </c>
       <c r="F19">
-        <v>71.13218180231836</v>
+        <v>17.18487000195111</v>
       </c>
       <c r="G19">
-        <v>1.970414836488011</v>
+        <v>20.62174099838353</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.935252304088166</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.612785525125696</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>70.6983582352067</v>
+        <v>24.68566929338357</v>
       </c>
       <c r="L19">
-        <v>4.692510119212119</v>
+        <v>5.03471623009769</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>19.2428312033668</v>
       </c>
       <c r="N19">
-        <v>14.61108785287537</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>54.20014754915377</v>
+        <v>12.95125625647074</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.84236156853075</v>
+        <v>11.16203919612381</v>
       </c>
       <c r="D20">
-        <v>4.637633026252965</v>
+        <v>5.607119791895503</v>
       </c>
       <c r="E20">
-        <v>7.977544731092665</v>
+        <v>8.768178226969914</v>
       </c>
       <c r="F20">
-        <v>72.70641991238494</v>
+        <v>17.31259425440466</v>
       </c>
       <c r="G20">
-        <v>1.958061699457156</v>
+        <v>20.78149145585302</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.903994336080871</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.658647023838093</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>72.33456537896555</v>
+        <v>25.13922786682194</v>
       </c>
       <c r="L20">
-        <v>4.669873631934093</v>
+        <v>5.014842852366455</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>19.605843261244</v>
       </c>
       <c r="N20">
-        <v>14.68099495778425</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>55.41386332254352</v>
+        <v>12.94708598922969</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.46722470437441</v>
+        <v>11.63734342258928</v>
       </c>
       <c r="D21">
-        <v>5.083237034007078</v>
+        <v>5.820868163005929</v>
       </c>
       <c r="E21">
-        <v>8.145011816239291</v>
+        <v>8.923557737208949</v>
       </c>
       <c r="F21">
-        <v>78.56208042546447</v>
+        <v>17.77311609099354</v>
       </c>
       <c r="G21">
-        <v>1.914345452180197</v>
+        <v>21.37767719690874</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.811695896459553</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.8394517767758</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>77.8723152435509</v>
+        <v>26.61010845366408</v>
       </c>
       <c r="L21">
-        <v>4.590943175942735</v>
+        <v>4.951282638978287</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>20.78303590914111</v>
       </c>
       <c r="N21">
-        <v>14.91881064090169</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>60.09513482072838</v>
+        <v>12.96504139925253</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.90638613614524</v>
+        <v>11.9463938296967</v>
       </c>
       <c r="D22">
-        <v>5.397953385934639</v>
+        <v>5.956604871257547</v>
       </c>
       <c r="E22">
-        <v>8.269384107851055</v>
+        <v>9.031816837796184</v>
       </c>
       <c r="F22">
-        <v>82.71310339477932</v>
+        <v>18.09772532380609</v>
       </c>
       <c r="G22">
-        <v>1.883363189761665</v>
+        <v>21.81229486625076</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.761574976262985</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.983031675721064</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>81.57423785931086</v>
+        <v>27.53215718178278</v>
       </c>
       <c r="L22">
-        <v>4.535976109428408</v>
+        <v>4.912240928547288</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>21.52103917180633</v>
       </c>
       <c r="N22">
-        <v>15.07555044902134</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>63.3759249776955</v>
+        <v>13.00211561338455</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.66850308911597</v>
+        <v>11.78161287211829</v>
       </c>
       <c r="D23">
-        <v>5.2272059927719</v>
+        <v>5.884527783042601</v>
       </c>
       <c r="E23">
-        <v>8.201385882674034</v>
+        <v>8.973416658725789</v>
       </c>
       <c r="F23">
-        <v>80.46439278728785</v>
+        <v>17.92230026178428</v>
       </c>
       <c r="G23">
-        <v>1.900181769075737</v>
+        <v>21.57618192217798</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.787344366561959</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.903631564956052</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>79.58658142144368</v>
+        <v>27.04361662916281</v>
       </c>
       <c r="L23">
-        <v>4.565723169442663</v>
+        <v>4.932842495474242</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>21.13000239771498</v>
       </c>
       <c r="N23">
-        <v>14.99184972926262</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>61.59919680807199</v>
+        <v>12.97991396892031</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.83254523114108</v>
+        <v>11.15424857143603</v>
       </c>
       <c r="D24">
-        <v>4.63063184145731</v>
+        <v>5.603560730338317</v>
       </c>
       <c r="E24">
-        <v>7.975013100849448</v>
+        <v>8.765750437248768</v>
       </c>
       <c r="F24">
-        <v>72.61903524780938</v>
+        <v>17.30546290228011</v>
       </c>
       <c r="G24">
-        <v>1.958746878387533</v>
+        <v>20.77249718055353</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.905664772034513</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.656039096474214</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>72.24466495772174</v>
+        <v>25.11452062895872</v>
       </c>
       <c r="L24">
-        <v>4.671125069227386</v>
+        <v>5.015922373739837</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>19.58606890771104</v>
       </c>
       <c r="N24">
-        <v>14.6771432867779</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>55.34009600065725</v>
+        <v>12.94719864167435</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.01710752048438</v>
+        <v>10.47308330359887</v>
       </c>
       <c r="D25">
-        <v>4.04482559363908</v>
+        <v>5.284183876941361</v>
       </c>
       <c r="E25">
-        <v>7.777332461832913</v>
+        <v>8.56985720171031</v>
       </c>
       <c r="F25">
-        <v>65.38398324023412</v>
+        <v>16.73976222068802</v>
       </c>
       <c r="G25">
-        <v>2.015859393416745</v>
+        <v>20.09356760031295</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.072555946315832</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.466909612006058</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>64.38509859803979</v>
+        <v>22.86359176632414</v>
       </c>
       <c r="L25">
-        <v>4.777276707433596</v>
+        <v>5.115611366535767</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>17.78416350052332</v>
       </c>
       <c r="N25">
-        <v>14.34814372226743</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>49.85702665411035</v>
+        <v>13.01082037218478</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.970829533313481</v>
+        <v>13.12240423021371</v>
       </c>
       <c r="D2">
-        <v>5.035922591813524</v>
+        <v>5.264534762822142</v>
       </c>
       <c r="E2">
-        <v>8.448846020833983</v>
+        <v>13.56397927401664</v>
       </c>
       <c r="F2">
-        <v>16.4057610017297</v>
+        <v>24.76176567724934</v>
       </c>
       <c r="G2">
-        <v>19.74634392977667</v>
+        <v>29.54827907061934</v>
       </c>
       <c r="H2">
-        <v>8.22465096201095</v>
+        <v>14.58574271590618</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.05845857510627</v>
+        <v>14.18055352004724</v>
       </c>
       <c r="L2">
-        <v>5.19705924679471</v>
+        <v>9.308426832388779</v>
       </c>
       <c r="M2">
-        <v>16.37016765676148</v>
+        <v>16.83976888856147</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.13163994019247</v>
+        <v>22.28874921790268</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.631948186293394</v>
+        <v>13.10207764057802</v>
       </c>
       <c r="D3">
-        <v>4.860105159519107</v>
+        <v>5.206238087509748</v>
       </c>
       <c r="E3">
-        <v>8.38074822132071</v>
+        <v>13.59955362221075</v>
       </c>
       <c r="F3">
-        <v>16.2285277312385</v>
+        <v>24.86674808705366</v>
       </c>
       <c r="G3">
-        <v>19.59969908126953</v>
+        <v>29.73053770777309</v>
       </c>
       <c r="H3">
-        <v>8.3439127315691</v>
+        <v>14.65685682476672</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.7425456643897</v>
+        <v>13.58454316405913</v>
       </c>
       <c r="L3">
-        <v>5.257014080741096</v>
+        <v>9.338282633960173</v>
       </c>
       <c r="M3">
-        <v>15.43256773405279</v>
+        <v>16.59111066583316</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.25411890269074</v>
+        <v>22.41597124582423</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.425364389697483</v>
+        <v>13.09281696559318</v>
       </c>
       <c r="D4">
-        <v>4.748669380360952</v>
+        <v>5.16983364272269</v>
       </c>
       <c r="E4">
-        <v>8.345575793179696</v>
+        <v>13.62417269842451</v>
       </c>
       <c r="F4">
-        <v>16.14291585597015</v>
+        <v>24.93933869123804</v>
       </c>
       <c r="G4">
-        <v>19.5506412472602</v>
+        <v>29.85466405121399</v>
       </c>
       <c r="H4">
-        <v>8.424515232742054</v>
+        <v>14.70342966797513</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.88894659920722</v>
+        <v>13.20461045418747</v>
       </c>
       <c r="L4">
-        <v>5.296096863479405</v>
+        <v>9.357743079053595</v>
       </c>
       <c r="M4">
-        <v>14.83010784900635</v>
+        <v>16.43801705684716</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.34755229336059</v>
+        <v>22.50011331733047</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.341677229955128</v>
+        <v>13.08985606462192</v>
       </c>
       <c r="D5">
-        <v>4.702425832878901</v>
+        <v>5.154854019836776</v>
       </c>
       <c r="E5">
-        <v>8.332876187426667</v>
+        <v>13.63490221062579</v>
       </c>
       <c r="F5">
-        <v>16.11368876405463</v>
+        <v>24.97095463385642</v>
       </c>
       <c r="G5">
-        <v>19.54049202943463</v>
+        <v>29.90829721462185</v>
       </c>
       <c r="H5">
-        <v>8.459132127768209</v>
+        <v>14.72313966011784</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.529653467168</v>
+        <v>13.04645672469936</v>
       </c>
       <c r="L5">
-        <v>5.312583922305002</v>
+        <v>9.365957687355252</v>
       </c>
       <c r="M5">
-        <v>14.57803202928624</v>
+        <v>16.37559079866897</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.38995233004069</v>
+        <v>22.53591353893065</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.327814789389089</v>
+        <v>13.08941358649544</v>
       </c>
       <c r="D6">
-        <v>4.694698208133401</v>
+        <v>5.152358198618626</v>
       </c>
       <c r="E6">
-        <v>8.330864956332213</v>
+        <v>13.6367259041179</v>
       </c>
       <c r="F6">
-        <v>16.10917190891964</v>
+        <v>24.9763270298875</v>
       </c>
       <c r="G6">
-        <v>19.53938680234158</v>
+        <v>29.91738656952582</v>
       </c>
       <c r="H6">
-        <v>8.464984852158643</v>
+        <v>14.726456646018</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.46930314300207</v>
+        <v>13.0200003833113</v>
       </c>
       <c r="L6">
-        <v>5.315355153922929</v>
+        <v>9.367338902511959</v>
       </c>
       <c r="M6">
-        <v>14.53578387508575</v>
+        <v>16.36522451029147</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.39724665318268</v>
+        <v>22.54194932360014</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.424233574637057</v>
+        <v>13.09277373872127</v>
       </c>
       <c r="D7">
-        <v>4.748049033760863</v>
+        <v>5.169632195606972</v>
       </c>
       <c r="E7">
-        <v>8.345397958513431</v>
+        <v>13.62431457958695</v>
       </c>
       <c r="F7">
-        <v>16.142499019834</v>
+        <v>24.93975684994214</v>
       </c>
       <c r="G7">
-        <v>19.55046516553973</v>
+        <v>29.85537504387678</v>
       </c>
       <c r="H7">
-        <v>8.424975024911715</v>
+        <v>14.70369252353282</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.88414733246665</v>
+        <v>13.20249074685065</v>
       </c>
       <c r="L7">
-        <v>5.29631695724468</v>
+        <v>9.357852712328627</v>
       </c>
       <c r="M7">
-        <v>14.82673461703195</v>
+        <v>16.43717522710828</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.34810693837868</v>
+        <v>22.50059001625291</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.853745161791421</v>
+        <v>13.11472946905769</v>
       </c>
       <c r="D8">
-        <v>4.976048077214542</v>
+        <v>5.244565970790762</v>
       </c>
       <c r="E8">
-        <v>8.423967092034776</v>
+        <v>13.57566846755983</v>
       </c>
       <c r="F8">
-        <v>16.33973536886131</v>
+        <v>24.7962701728902</v>
       </c>
       <c r="G8">
-        <v>19.68701133385039</v>
+        <v>29.60857278977065</v>
       </c>
       <c r="H8">
-        <v>8.264189246358303</v>
+        <v>14.60965908875011</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.61421088200449</v>
+        <v>13.97805540495842</v>
       </c>
       <c r="L8">
-        <v>5.217253941473284</v>
+        <v>9.318487092550287</v>
       </c>
       <c r="M8">
-        <v>16.05252493681339</v>
+        <v>16.75415694634613</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.16992836979256</v>
+        <v>22.33136203456446</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.70287865820352</v>
+        <v>13.18316066743232</v>
       </c>
       <c r="D9">
-        <v>5.393872276318744</v>
+        <v>5.386288943890692</v>
       </c>
       <c r="E9">
-        <v>8.632167686189961</v>
+        <v>13.50234751162623</v>
       </c>
       <c r="F9">
-        <v>16.91724463223759</v>
+        <v>24.5798356762701</v>
       </c>
       <c r="G9">
-        <v>20.29782566771129</v>
+        <v>29.22250643203517</v>
       </c>
       <c r="H9">
-        <v>8.011511298483082</v>
+        <v>14.44834564076516</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.64469808469847</v>
+        <v>15.38099790412431</v>
       </c>
       <c r="L9">
-        <v>5.080742730703045</v>
+        <v>9.250227462131463</v>
       </c>
       <c r="M9">
-        <v>18.40957022589948</v>
+        <v>17.36962752307917</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.97715315365101</v>
+        <v>22.04750780050535</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.32500442829106</v>
+        <v>13.24863063812148</v>
       </c>
       <c r="D10">
-        <v>5.681141131031567</v>
+        <v>5.486732737809844</v>
       </c>
       <c r="E10">
-        <v>8.819864332278989</v>
+        <v>13.46199303183114</v>
       </c>
       <c r="F10">
-        <v>17.46493389602792</v>
+        <v>24.46096937090096</v>
       </c>
       <c r="G10">
-        <v>20.97553539526401</v>
+        <v>28.99984242453252</v>
       </c>
       <c r="H10">
-        <v>7.870231228647015</v>
+        <v>14.34391382677887</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.6514205587887</v>
+        <v>16.33197132361361</v>
       </c>
       <c r="L10">
-        <v>4.992547702941811</v>
+        <v>9.205495919608421</v>
       </c>
       <c r="M10">
-        <v>20.01576806894165</v>
+        <v>17.81438435122779</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.94777889111164</v>
+        <v>21.86846855061031</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.60663042036195</v>
+        <v>13.28164011387624</v>
       </c>
       <c r="D11">
-        <v>5.807246472337725</v>
+        <v>5.531526927877612</v>
       </c>
       <c r="E11">
-        <v>8.913100359187167</v>
+        <v>13.44657961280424</v>
       </c>
       <c r="F11">
-        <v>17.7419018437271</v>
+        <v>24.41572169831113</v>
       </c>
       <c r="G11">
-        <v>21.33643540240086</v>
+        <v>28.912054612992</v>
       </c>
       <c r="H11">
-        <v>7.817097413974759</v>
+        <v>14.29946673488286</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.51709116005436</v>
+        <v>16.74598982011367</v>
       </c>
       <c r="L11">
-        <v>4.955257894986765</v>
+        <v>9.186316983583408</v>
       </c>
       <c r="M11">
-        <v>20.70858969212032</v>
+        <v>18.01435357322966</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.96243212991149</v>
+        <v>21.79348046902464</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.71300755522952</v>
+        <v>13.29459662219622</v>
       </c>
       <c r="D12">
-        <v>5.854321584152604</v>
+        <v>5.548351947941208</v>
       </c>
       <c r="E12">
-        <v>8.949556513523262</v>
+        <v>13.44116696433391</v>
       </c>
       <c r="F12">
-        <v>17.85083575836351</v>
+        <v>24.3998648722204</v>
       </c>
       <c r="G12">
-        <v>21.48081154632721</v>
+        <v>28.88077456689186</v>
       </c>
       <c r="H12">
-        <v>7.798714948422999</v>
+        <v>14.28307614880895</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.83816204711921</v>
+        <v>16.90000964944301</v>
       </c>
       <c r="L12">
-        <v>4.94156386713597</v>
+        <v>9.179222182472735</v>
       </c>
       <c r="M12">
-        <v>20.96556086378672</v>
+        <v>18.08967859826507</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.97230567331694</v>
+        <v>21.76601773602575</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.690110252524</v>
+        <v>13.29178602796945</v>
       </c>
       <c r="D13">
-        <v>5.844213566931315</v>
+        <v>5.544734628166508</v>
       </c>
       <c r="E13">
-        <v>8.941653588017473</v>
+        <v>13.44231380365166</v>
       </c>
       <c r="F13">
-        <v>17.82719403300766</v>
+        <v>24.40322297878474</v>
       </c>
       <c r="G13">
-        <v>21.44937287758527</v>
+        <v>28.88742363040533</v>
       </c>
       <c r="H13">
-        <v>7.802594356518233</v>
+        <v>14.28658655041488</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.76931259739774</v>
+        <v>16.86696272442932</v>
       </c>
       <c r="L13">
-        <v>4.944493800222106</v>
+        <v>9.180742715345035</v>
       </c>
       <c r="M13">
-        <v>20.91045608297627</v>
+        <v>18.07347469027449</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.96998224693626</v>
+        <v>21.77189072333601</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.61538786673928</v>
+        <v>13.28269694917713</v>
       </c>
       <c r="D14">
-        <v>5.811133066755299</v>
+        <v>5.532913936658572</v>
       </c>
       <c r="E14">
-        <v>8.916076476330407</v>
+        <v>13.44612580802718</v>
       </c>
       <c r="F14">
-        <v>17.75078245788173</v>
+        <v>24.41439149871881</v>
       </c>
       <c r="G14">
-        <v>21.34815813600803</v>
+        <v>28.90944171636477</v>
       </c>
       <c r="H14">
-        <v>7.8155494246785</v>
+        <v>14.29810943830173</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.54364062947416</v>
+        <v>16.75871689153558</v>
       </c>
       <c r="L14">
-        <v>4.954122604075564</v>
+        <v>9.185729928126998</v>
       </c>
       <c r="M14">
-        <v>20.72983845289052</v>
+        <v>18.02055894306103</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.96315608736339</v>
+        <v>21.7912023533131</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.56958142736935</v>
+        <v>13.27718884699267</v>
       </c>
       <c r="D15">
-        <v>5.790781436077428</v>
+        <v>5.525655261520999</v>
       </c>
       <c r="E15">
-        <v>8.900560058510969</v>
+        <v>13.44851601799503</v>
       </c>
       <c r="F15">
-        <v>17.70450710189607</v>
+        <v>24.42139914645269</v>
       </c>
       <c r="G15">
-        <v>21.2871687687367</v>
+        <v>28.92318473687233</v>
       </c>
       <c r="H15">
-        <v>7.823715360768506</v>
+        <v>14.30522493307913</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.40453386261636</v>
+        <v>16.69205139634465</v>
       </c>
       <c r="L15">
-        <v>4.960076732119738</v>
+        <v>9.188806588160379</v>
       </c>
       <c r="M15">
-        <v>20.6185053767665</v>
+        <v>17.98809280346714</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.95954674322203</v>
+        <v>21.8031530195387</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.30656543940214</v>
+        <v>13.24653769968183</v>
       </c>
       <c r="D16">
-        <v>5.672805964937957</v>
+        <v>5.483786533271576</v>
       </c>
       <c r="E16">
-        <v>8.813930947195944</v>
+        <v>13.46305964164538</v>
       </c>
       <c r="F16">
-        <v>17.44739803929443</v>
+        <v>24.46410473214496</v>
       </c>
       <c r="G16">
-        <v>20.95302215397736</v>
+        <v>29.00585314002691</v>
       </c>
       <c r="H16">
-        <v>7.873939208999056</v>
+        <v>14.34688016477576</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.59390104461732</v>
+        <v>16.30453247162543</v>
       </c>
       <c r="L16">
-        <v>4.99504328019685</v>
+        <v>9.206772814669844</v>
       </c>
       <c r="M16">
-        <v>19.96973374199295</v>
+        <v>17.80126330715467</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.94741046069899</v>
+        <v>21.87349957157353</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.14480596216529</v>
+        <v>13.22855558075676</v>
       </c>
       <c r="D17">
-        <v>5.59924441527057</v>
+        <v>5.457865308251641</v>
       </c>
       <c r="E17">
-        <v>8.762813188056429</v>
+        <v>13.47273627870281</v>
       </c>
       <c r="F17">
-        <v>17.29683816677273</v>
+        <v>24.49256975080226</v>
       </c>
       <c r="G17">
-        <v>20.76163073023761</v>
+        <v>29.06004155150934</v>
       </c>
       <c r="H17">
-        <v>7.907696371733013</v>
+        <v>14.37321832849858</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.0845463757817</v>
+        <v>16.06197547941018</v>
       </c>
       <c r="L17">
-        <v>5.017232508794116</v>
+        <v>9.218093839981471</v>
       </c>
       <c r="M17">
-        <v>19.56207906015946</v>
+        <v>17.68600292246513</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.94735316248097</v>
+        <v>21.91831243609457</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.05163946563946</v>
+        <v>13.21851696010202</v>
       </c>
       <c r="D18">
-        <v>5.556504134937119</v>
+        <v>5.442872049216268</v>
       </c>
       <c r="E18">
-        <v>8.734149584296892</v>
+        <v>13.47857909472395</v>
       </c>
       <c r="F18">
-        <v>17.21285699832336</v>
+        <v>24.50977227728478</v>
       </c>
       <c r="G18">
-        <v>20.65649422441973</v>
+        <v>29.09247902341734</v>
       </c>
       <c r="H18">
-        <v>7.928151921236197</v>
+        <v>14.38865527564468</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.78713316943613</v>
+        <v>15.92071817200501</v>
       </c>
       <c r="L18">
-        <v>5.030260283574417</v>
+        <v>9.224715509324218</v>
       </c>
       <c r="M18">
-        <v>19.32404093098085</v>
+        <v>17.61949021174735</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.94993970924868</v>
+        <v>21.94469514320534</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.02007546084032</v>
+        <v>13.21517052236765</v>
       </c>
       <c r="D19">
-        <v>5.541959906255239</v>
+        <v>5.437781413209611</v>
       </c>
       <c r="E19">
-        <v>8.72457066672526</v>
+        <v>13.48060493476374</v>
       </c>
       <c r="F19">
-        <v>17.18487000195111</v>
+        <v>24.51573907879481</v>
       </c>
       <c r="G19">
-        <v>20.62174099838353</v>
+        <v>29.10367920427413</v>
       </c>
       <c r="H19">
-        <v>7.935252304088166</v>
+        <v>14.39393139517968</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.68566929338357</v>
+        <v>15.87259408065259</v>
       </c>
       <c r="L19">
-        <v>5.03471623009769</v>
+        <v>9.226976415990991</v>
       </c>
       <c r="M19">
-        <v>19.2428312033668</v>
+        <v>17.59693459873215</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.95125625647074</v>
+        <v>21.95373206730625</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.16203919612381</v>
+        <v>13.23043837460394</v>
       </c>
       <c r="D20">
-        <v>5.607119791895503</v>
+        <v>5.460633428137858</v>
       </c>
       <c r="E20">
-        <v>8.768178226969914</v>
+        <v>13.4716775027665</v>
       </c>
       <c r="F20">
-        <v>17.31259425440466</v>
+        <v>24.4894536154199</v>
       </c>
       <c r="G20">
-        <v>20.78149145585302</v>
+        <v>29.05414153197786</v>
       </c>
       <c r="H20">
-        <v>7.903994336080871</v>
+        <v>14.37038478177209</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.13922786682194</v>
+        <v>16.08797735899107</v>
       </c>
       <c r="L20">
-        <v>5.014842852366455</v>
+        <v>9.216877303586637</v>
       </c>
       <c r="M20">
-        <v>19.605843261244</v>
+        <v>17.69829559488701</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.94708598922969</v>
+        <v>21.91347911670877</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.63734342258928</v>
+        <v>13.2853543046188</v>
       </c>
       <c r="D21">
-        <v>5.820868163005929</v>
+        <v>5.536389759497016</v>
       </c>
       <c r="E21">
-        <v>8.923557737208949</v>
+        <v>13.44499461533238</v>
       </c>
       <c r="F21">
-        <v>17.77311609099354</v>
+        <v>24.4110762987445</v>
       </c>
       <c r="G21">
-        <v>21.37767719690874</v>
+        <v>28.90292101910529</v>
       </c>
       <c r="H21">
-        <v>7.811695896459553</v>
+        <v>14.2947129249605</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.61010845366408</v>
+        <v>16.79058685209231</v>
       </c>
       <c r="L21">
-        <v>4.951282638978287</v>
+        <v>9.18426051030943</v>
       </c>
       <c r="M21">
-        <v>20.78303590914111</v>
+        <v>18.03611287990551</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.96504139925253</v>
+        <v>21.7855046809356</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.9463938296967</v>
+        <v>13.323902145942</v>
       </c>
       <c r="D22">
-        <v>5.956604871257547</v>
+        <v>5.585095347111268</v>
       </c>
       <c r="E22">
-        <v>9.031816837796184</v>
+        <v>13.43002791565628</v>
       </c>
       <c r="F22">
-        <v>18.09772532380609</v>
+        <v>24.36730185384194</v>
       </c>
       <c r="G22">
-        <v>21.81229486625076</v>
+        <v>28.81554275905979</v>
       </c>
       <c r="H22">
-        <v>7.761574976262985</v>
+        <v>14.24782524318105</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.53215718178278</v>
+        <v>17.23366414060615</v>
       </c>
       <c r="L22">
-        <v>4.912240928547288</v>
+        <v>9.163921727138092</v>
       </c>
       <c r="M22">
-        <v>21.52103917180633</v>
+        <v>18.25454409689032</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.00211561338455</v>
+        <v>21.70731023992661</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.78161287211829</v>
+        <v>13.3030879551779</v>
       </c>
       <c r="D23">
-        <v>5.884527783042601</v>
+        <v>5.559176673467823</v>
       </c>
       <c r="E23">
-        <v>8.973416658725789</v>
+        <v>13.43778951645375</v>
       </c>
       <c r="F23">
-        <v>17.92230026178428</v>
+        <v>24.38998081867231</v>
       </c>
       <c r="G23">
-        <v>21.57618192217798</v>
+        <v>28.86112327722689</v>
       </c>
       <c r="H23">
-        <v>7.787344366561959</v>
+        <v>14.27261487292147</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.04361662916281</v>
+        <v>16.99868578164676</v>
       </c>
       <c r="L23">
-        <v>4.932842495474242</v>
+        <v>9.17468752892777</v>
       </c>
       <c r="M23">
-        <v>21.13000239771498</v>
+        <v>18.13819783196013</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.97991396892031</v>
+        <v>21.7485442663782</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.15424857143603</v>
+        <v>13.2295862299231</v>
       </c>
       <c r="D24">
-        <v>5.603560730338317</v>
+        <v>5.459382243316125</v>
       </c>
       <c r="E24">
-        <v>8.765750437248768</v>
+        <v>13.47215530453035</v>
       </c>
       <c r="F24">
-        <v>17.30546290228011</v>
+        <v>24.49085981175996</v>
       </c>
       <c r="G24">
-        <v>20.77249718055353</v>
+        <v>29.05680493336271</v>
       </c>
       <c r="H24">
-        <v>7.905664772034513</v>
+        <v>14.37166491003233</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.11452062895872</v>
+        <v>16.07622753416843</v>
       </c>
       <c r="L24">
-        <v>5.015922373739837</v>
+        <v>9.217426947481981</v>
       </c>
       <c r="M24">
-        <v>19.58606890771104</v>
+        <v>17.69273884544696</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.94719864167435</v>
+        <v>21.91566233199712</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.47308330359887</v>
+        <v>13.16195720951999</v>
       </c>
       <c r="D25">
-        <v>5.284183876941361</v>
+        <v>5.348560206698385</v>
       </c>
       <c r="E25">
-        <v>8.56985720171031</v>
+        <v>13.51981326183449</v>
       </c>
       <c r="F25">
-        <v>16.73976222068802</v>
+        <v>24.63137507834882</v>
       </c>
       <c r="G25">
-        <v>20.09356760031295</v>
+        <v>29.31633069208215</v>
       </c>
       <c r="H25">
-        <v>8.072555946315832</v>
+        <v>14.48951266327271</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.86359176632414</v>
+        <v>15.01498053123629</v>
       </c>
       <c r="L25">
-        <v>5.115611366535767</v>
+        <v>9.267739841265991</v>
       </c>
       <c r="M25">
-        <v>17.78416350052332</v>
+        <v>17.2041700596169</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.01082037218478</v>
+        <v>22.11913391131329</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.12240423021371</v>
+        <v>9.970829533313594</v>
       </c>
       <c r="D2">
-        <v>5.264534762822142</v>
+        <v>5.035922591813588</v>
       </c>
       <c r="E2">
-        <v>13.56397927401664</v>
+        <v>8.448846020834036</v>
       </c>
       <c r="F2">
-        <v>24.76176567724934</v>
+        <v>16.4057610017297</v>
       </c>
       <c r="G2">
-        <v>29.54827907061934</v>
+        <v>19.74634392977673</v>
       </c>
       <c r="H2">
-        <v>14.58574271590618</v>
+        <v>8.224650962010953</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.18055352004724</v>
+        <v>21.05845857510627</v>
       </c>
       <c r="L2">
-        <v>9.308426832388779</v>
+        <v>5.197059246794742</v>
       </c>
       <c r="M2">
-        <v>16.83976888856147</v>
+        <v>16.3701676567615</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.28874921790268</v>
+        <v>13.13163994019252</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.10207764057802</v>
+        <v>9.631948186293569</v>
       </c>
       <c r="D3">
-        <v>5.206238087509748</v>
+        <v>4.860105159518946</v>
       </c>
       <c r="E3">
-        <v>13.59955362221075</v>
+        <v>8.380748221320768</v>
       </c>
       <c r="F3">
-        <v>24.86674808705366</v>
+        <v>16.22852773123818</v>
       </c>
       <c r="G3">
-        <v>29.73053770777309</v>
+        <v>19.59969908126892</v>
       </c>
       <c r="H3">
-        <v>14.65685682476672</v>
+        <v>8.343912731568986</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.58454316405913</v>
+        <v>19.74254566438979</v>
       </c>
       <c r="L3">
-        <v>9.338282633960173</v>
+        <v>5.25701408074113</v>
       </c>
       <c r="M3">
-        <v>16.59111066583316</v>
+        <v>15.43256773405275</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.41597124582423</v>
+        <v>13.25411890269039</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.09281696559318</v>
+        <v>9.425364389697471</v>
       </c>
       <c r="D4">
-        <v>5.16983364272269</v>
+        <v>4.74866938036093</v>
       </c>
       <c r="E4">
-        <v>13.62417269842451</v>
+        <v>8.345575793179748</v>
       </c>
       <c r="F4">
-        <v>24.93933869123804</v>
+        <v>16.14291585597004</v>
       </c>
       <c r="G4">
-        <v>29.85466405121399</v>
+        <v>19.55064124726001</v>
       </c>
       <c r="H4">
-        <v>14.70342966797513</v>
+        <v>8.424515232742054</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.20461045418747</v>
+        <v>18.88894659920727</v>
       </c>
       <c r="L4">
-        <v>9.357743079053595</v>
+        <v>5.296096863479501</v>
       </c>
       <c r="M4">
-        <v>16.43801705684716</v>
+        <v>14.83010784900635</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.50011331733047</v>
+        <v>13.34755229336051</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.08985606462192</v>
+        <v>9.34167722995506</v>
       </c>
       <c r="D5">
-        <v>5.154854019836776</v>
+        <v>4.702425832878841</v>
       </c>
       <c r="E5">
-        <v>13.63490221062579</v>
+        <v>8.332876187426574</v>
       </c>
       <c r="F5">
-        <v>24.97095463385642</v>
+        <v>16.11368876405475</v>
       </c>
       <c r="G5">
-        <v>29.90829721462185</v>
+        <v>19.54049202943468</v>
       </c>
       <c r="H5">
-        <v>14.72313966011784</v>
+        <v>8.459132127768219</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.04645672469936</v>
+        <v>18.529653467168</v>
       </c>
       <c r="L5">
-        <v>9.365957687355252</v>
+        <v>5.312583922304846</v>
       </c>
       <c r="M5">
-        <v>16.37559079866897</v>
+        <v>14.57803202928623</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.53591353893065</v>
+        <v>13.38995233004071</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.08941358649544</v>
+        <v>9.327814789389107</v>
       </c>
       <c r="D6">
-        <v>5.152358198618626</v>
+        <v>4.694698208133396</v>
       </c>
       <c r="E6">
-        <v>13.6367259041179</v>
+        <v>8.330864956332324</v>
       </c>
       <c r="F6">
-        <v>24.9763270298875</v>
+        <v>16.10917190891957</v>
       </c>
       <c r="G6">
-        <v>29.91738656952582</v>
+        <v>19.53938680234159</v>
       </c>
       <c r="H6">
-        <v>14.726456646018</v>
+        <v>8.464984852158587</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.0200003833113</v>
+        <v>18.4693031430021</v>
       </c>
       <c r="L6">
-        <v>9.367338902511959</v>
+        <v>5.315355153923056</v>
       </c>
       <c r="M6">
-        <v>16.36522451029147</v>
+        <v>14.53578387508576</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.54194932360014</v>
+        <v>13.3972466531826</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.09277373872127</v>
+        <v>9.424233574637036</v>
       </c>
       <c r="D7">
-        <v>5.169632195606972</v>
+        <v>4.748049033760977</v>
       </c>
       <c r="E7">
-        <v>13.62431457958695</v>
+        <v>8.345397958513438</v>
       </c>
       <c r="F7">
-        <v>24.93975684994214</v>
+        <v>16.14249901983392</v>
       </c>
       <c r="G7">
-        <v>29.85537504387678</v>
+        <v>19.55046516553967</v>
       </c>
       <c r="H7">
-        <v>14.70369252353282</v>
+        <v>8.424975024911719</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.20249074685065</v>
+        <v>18.88414733246667</v>
       </c>
       <c r="L7">
-        <v>9.357852712328627</v>
+        <v>5.296316957244706</v>
       </c>
       <c r="M7">
-        <v>16.43717522710828</v>
+        <v>14.82673461703195</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.50059001625291</v>
+        <v>13.34810693837866</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.11472946905769</v>
+        <v>9.853745161791421</v>
       </c>
       <c r="D8">
-        <v>5.244565970790762</v>
+        <v>4.976048077214648</v>
       </c>
       <c r="E8">
-        <v>13.57566846755983</v>
+        <v>8.423967092034765</v>
       </c>
       <c r="F8">
-        <v>24.7962701728902</v>
+        <v>16.33973536886123</v>
       </c>
       <c r="G8">
-        <v>29.60857278977065</v>
+        <v>19.6870113338503</v>
       </c>
       <c r="H8">
-        <v>14.60965908875011</v>
+        <v>8.264189246358294</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.97805540495842</v>
+        <v>20.61421088200451</v>
       </c>
       <c r="L8">
-        <v>9.318487092550287</v>
+        <v>5.217253941473284</v>
       </c>
       <c r="M8">
-        <v>16.75415694634613</v>
+        <v>16.05252493681338</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.33136203456446</v>
+        <v>13.16992836979252</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.18316066743232</v>
+        <v>10.70287865820359</v>
       </c>
       <c r="D9">
-        <v>5.386288943890692</v>
+        <v>5.393872276318859</v>
       </c>
       <c r="E9">
-        <v>13.50234751162623</v>
+        <v>8.632167686190055</v>
       </c>
       <c r="F9">
-        <v>24.5798356762701</v>
+        <v>16.91724463223746</v>
       </c>
       <c r="G9">
-        <v>29.22250643203517</v>
+        <v>20.2978256677112</v>
       </c>
       <c r="H9">
-        <v>14.44834564076516</v>
+        <v>8.011511298483077</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.38099790412431</v>
+        <v>23.64469808469852</v>
       </c>
       <c r="L9">
-        <v>9.250227462131463</v>
+        <v>5.080742730703051</v>
       </c>
       <c r="M9">
-        <v>17.36962752307917</v>
+        <v>18.40957022589949</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.04750780050535</v>
+        <v>12.97715315365095</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.24863063812148</v>
+        <v>11.32500442829101</v>
       </c>
       <c r="D10">
-        <v>5.486732737809844</v>
+        <v>5.681141131031561</v>
       </c>
       <c r="E10">
-        <v>13.46199303183114</v>
+        <v>8.819864332278964</v>
       </c>
       <c r="F10">
-        <v>24.46096937090096</v>
+        <v>17.46493389602794</v>
       </c>
       <c r="G10">
-        <v>28.99984242453252</v>
+        <v>20.97553539526408</v>
       </c>
       <c r="H10">
-        <v>14.34391382677887</v>
+        <v>7.870231228647021</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.33197132361361</v>
+        <v>25.6514205587887</v>
       </c>
       <c r="L10">
-        <v>9.205495919608421</v>
+        <v>4.99254770294178</v>
       </c>
       <c r="M10">
-        <v>17.81438435122779</v>
+        <v>20.01576806894168</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.86846855061031</v>
+        <v>12.94777889111166</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.28164011387624</v>
+        <v>11.60663042036192</v>
       </c>
       <c r="D11">
-        <v>5.531526927877612</v>
+        <v>5.807246472337718</v>
       </c>
       <c r="E11">
-        <v>13.44657961280424</v>
+        <v>8.913100359187226</v>
       </c>
       <c r="F11">
-        <v>24.41572169831113</v>
+        <v>17.74190184372705</v>
       </c>
       <c r="G11">
-        <v>28.912054612992</v>
+        <v>21.33643540240075</v>
       </c>
       <c r="H11">
-        <v>14.29946673488286</v>
+        <v>7.817097413974746</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.74598982011367</v>
+        <v>26.51709116005435</v>
       </c>
       <c r="L11">
-        <v>9.186316983583408</v>
+        <v>4.955257894986766</v>
       </c>
       <c r="M11">
-        <v>18.01435357322966</v>
+        <v>20.70858969212032</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.79348046902464</v>
+        <v>12.96243212991149</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.29459662219622</v>
+        <v>11.71300755522948</v>
       </c>
       <c r="D12">
-        <v>5.548351947941208</v>
+        <v>5.854321584152737</v>
       </c>
       <c r="E12">
-        <v>13.44116696433391</v>
+        <v>8.949556513523218</v>
       </c>
       <c r="F12">
-        <v>24.3998648722204</v>
+        <v>17.8508357583635</v>
       </c>
       <c r="G12">
-        <v>28.88077456689186</v>
+        <v>21.4808115463272</v>
       </c>
       <c r="H12">
-        <v>14.28307614880895</v>
+        <v>7.79871494842305</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.90000964944301</v>
+        <v>26.83816204711917</v>
       </c>
       <c r="L12">
-        <v>9.179222182472735</v>
+        <v>4.941563867135969</v>
       </c>
       <c r="M12">
-        <v>18.08967859826507</v>
+        <v>20.9655608637867</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.76601773602575</v>
+        <v>12.97230567331698</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.29178602796945</v>
+        <v>11.69011025252391</v>
       </c>
       <c r="D13">
-        <v>5.544734628166508</v>
+        <v>5.844213566931375</v>
       </c>
       <c r="E13">
-        <v>13.44231380365166</v>
+        <v>8.941653588017404</v>
       </c>
       <c r="F13">
-        <v>24.40322297878474</v>
+        <v>17.82719403300755</v>
       </c>
       <c r="G13">
-        <v>28.88742363040533</v>
+        <v>21.44937287758518</v>
       </c>
       <c r="H13">
-        <v>14.28658655041488</v>
+        <v>7.802594356518233</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.86696272442932</v>
+        <v>26.7693125973978</v>
       </c>
       <c r="L13">
-        <v>9.180742715345035</v>
+        <v>4.944493800222075</v>
       </c>
       <c r="M13">
-        <v>18.07347469027449</v>
+        <v>20.91045608297632</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.77189072333601</v>
+        <v>12.96998224693617</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.28269694917713</v>
+        <v>11.61538786673923</v>
       </c>
       <c r="D14">
-        <v>5.532913936658572</v>
+        <v>5.811133066755305</v>
       </c>
       <c r="E14">
-        <v>13.44612580802718</v>
+        <v>8.916076476330428</v>
       </c>
       <c r="F14">
-        <v>24.41439149871881</v>
+        <v>17.75078245788168</v>
       </c>
       <c r="G14">
-        <v>28.90944171636477</v>
+        <v>21.34815813600793</v>
       </c>
       <c r="H14">
-        <v>14.29810943830173</v>
+        <v>7.815549424678496</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.75871689153558</v>
+        <v>26.5436406294742</v>
       </c>
       <c r="L14">
-        <v>9.185729928126998</v>
+        <v>4.954122604075593</v>
       </c>
       <c r="M14">
-        <v>18.02055894306103</v>
+        <v>20.7298384528905</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.7912023533131</v>
+        <v>12.96315608736335</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.27718884699267</v>
+        <v>11.56958142736931</v>
       </c>
       <c r="D15">
-        <v>5.525655261520999</v>
+        <v>5.790781436077335</v>
       </c>
       <c r="E15">
-        <v>13.44851601799503</v>
+        <v>8.900560058511001</v>
       </c>
       <c r="F15">
-        <v>24.42139914645269</v>
+        <v>17.70450710189605</v>
       </c>
       <c r="G15">
-        <v>28.92318473687233</v>
+        <v>21.28716876873663</v>
       </c>
       <c r="H15">
-        <v>14.30522493307913</v>
+        <v>7.823715360768513</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.69205139634465</v>
+        <v>26.40453386261641</v>
       </c>
       <c r="L15">
-        <v>9.188806588160379</v>
+        <v>4.96007673211983</v>
       </c>
       <c r="M15">
-        <v>17.98809280346714</v>
+        <v>20.61850537676652</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.8031530195387</v>
+        <v>12.95954674322198</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.24653769968183</v>
+        <v>11.30656543940217</v>
       </c>
       <c r="D16">
-        <v>5.483786533271576</v>
+        <v>5.672805964938039</v>
       </c>
       <c r="E16">
-        <v>13.46305964164538</v>
+        <v>8.81393094719599</v>
       </c>
       <c r="F16">
-        <v>24.46410473214496</v>
+        <v>17.44739803929435</v>
       </c>
       <c r="G16">
-        <v>29.00585314002691</v>
+        <v>20.95302215397731</v>
       </c>
       <c r="H16">
-        <v>14.34688016477576</v>
+        <v>7.873939208999045</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.30453247162543</v>
+        <v>25.59390104461731</v>
       </c>
       <c r="L16">
-        <v>9.206772814669844</v>
+        <v>4.995043280196851</v>
       </c>
       <c r="M16">
-        <v>17.80126330715467</v>
+        <v>19.96973374199293</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.87349957157353</v>
+        <v>12.94741046069894</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.22855558075676</v>
+        <v>11.14480596216526</v>
       </c>
       <c r="D17">
-        <v>5.457865308251641</v>
+        <v>5.599244415270586</v>
       </c>
       <c r="E17">
-        <v>13.47273627870281</v>
+        <v>8.762813188056398</v>
       </c>
       <c r="F17">
-        <v>24.49256975080226</v>
+        <v>17.29683816677282</v>
       </c>
       <c r="G17">
-        <v>29.06004155150934</v>
+        <v>20.76163073023771</v>
       </c>
       <c r="H17">
-        <v>14.37321832849858</v>
+        <v>7.90769637173308</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.06197547941018</v>
+        <v>25.08454637578165</v>
       </c>
       <c r="L17">
-        <v>9.218093839981471</v>
+        <v>5.017232508794146</v>
       </c>
       <c r="M17">
-        <v>17.68600292246513</v>
+        <v>19.56207906015943</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.91831243609457</v>
+        <v>12.94735316248102</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.21851696010202</v>
+        <v>11.05163946563933</v>
       </c>
       <c r="D18">
-        <v>5.442872049216268</v>
+        <v>5.556504134937069</v>
       </c>
       <c r="E18">
-        <v>13.47857909472395</v>
+        <v>8.734149584296901</v>
       </c>
       <c r="F18">
-        <v>24.50977227728478</v>
+        <v>17.21285699832325</v>
       </c>
       <c r="G18">
-        <v>29.09247902341734</v>
+        <v>20.65649422441956</v>
       </c>
       <c r="H18">
-        <v>14.38865527564468</v>
+        <v>7.928151921235988</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.92071817200501</v>
+        <v>24.78713316943622</v>
       </c>
       <c r="L18">
-        <v>9.224715509324218</v>
+        <v>5.030260283574563</v>
       </c>
       <c r="M18">
-        <v>17.61949021174735</v>
+        <v>19.3240409309809</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.94469514320534</v>
+        <v>12.94993970924852</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.21517052236765</v>
+        <v>11.02007546084037</v>
       </c>
       <c r="D19">
-        <v>5.437781413209611</v>
+        <v>5.541959906255197</v>
       </c>
       <c r="E19">
-        <v>13.48060493476374</v>
+        <v>8.724570666725304</v>
       </c>
       <c r="F19">
-        <v>24.51573907879481</v>
+        <v>17.18487000195115</v>
       </c>
       <c r="G19">
-        <v>29.10367920427413</v>
+        <v>20.62174099838355</v>
       </c>
       <c r="H19">
-        <v>14.39393139517968</v>
+        <v>7.935252304088166</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.87259408065259</v>
+        <v>24.68566929338351</v>
       </c>
       <c r="L19">
-        <v>9.226976415990991</v>
+        <v>5.034716230097746</v>
       </c>
       <c r="M19">
-        <v>17.59693459873215</v>
+        <v>19.24283120336675</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.95373206730625</v>
+        <v>12.95125625647079</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.23043837460394</v>
+        <v>11.16203919612372</v>
       </c>
       <c r="D20">
-        <v>5.460633428137858</v>
+        <v>5.60711979189566</v>
       </c>
       <c r="E20">
-        <v>13.4716775027665</v>
+        <v>8.768178226969882</v>
       </c>
       <c r="F20">
-        <v>24.4894536154199</v>
+        <v>17.31259425440453</v>
       </c>
       <c r="G20">
-        <v>29.05414153197786</v>
+        <v>20.78149145585288</v>
       </c>
       <c r="H20">
-        <v>14.37038478177209</v>
+        <v>7.903994336080792</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.08797735899107</v>
+        <v>25.13922786682201</v>
       </c>
       <c r="L20">
-        <v>9.216877303586637</v>
+        <v>5.01484285236648</v>
       </c>
       <c r="M20">
-        <v>17.69829559488701</v>
+        <v>19.60584326124406</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.91347911670877</v>
+        <v>12.94708598922957</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.2853543046188</v>
+        <v>11.63734342258927</v>
       </c>
       <c r="D21">
-        <v>5.536389759497016</v>
+        <v>5.820868163005977</v>
       </c>
       <c r="E21">
-        <v>13.44499461533238</v>
+        <v>8.923557737208988</v>
       </c>
       <c r="F21">
-        <v>24.4110762987445</v>
+        <v>17.77311609099347</v>
       </c>
       <c r="G21">
-        <v>28.90292101910529</v>
+        <v>21.37767719690866</v>
       </c>
       <c r="H21">
-        <v>14.2947129249605</v>
+        <v>7.811695896459542</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.79058685209231</v>
+        <v>26.61010845366405</v>
       </c>
       <c r="L21">
-        <v>9.18426051030943</v>
+        <v>4.951282638978289</v>
       </c>
       <c r="M21">
-        <v>18.03611287990551</v>
+        <v>20.78303590914108</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.7855046809356</v>
+        <v>12.96504139925245</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.323902145942</v>
+        <v>11.94639382969663</v>
       </c>
       <c r="D22">
-        <v>5.585095347111268</v>
+        <v>5.956604871257514</v>
       </c>
       <c r="E22">
-        <v>13.43002791565628</v>
+        <v>9.031816837796146</v>
       </c>
       <c r="F22">
-        <v>24.36730185384194</v>
+        <v>18.09772532380603</v>
       </c>
       <c r="G22">
-        <v>28.81554275905979</v>
+        <v>21.81229486625066</v>
       </c>
       <c r="H22">
-        <v>14.24782524318105</v>
+        <v>7.76157497626293</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.23366414060615</v>
+        <v>27.53215718178278</v>
       </c>
       <c r="L22">
-        <v>9.163921727138092</v>
+        <v>4.912240928547289</v>
       </c>
       <c r="M22">
-        <v>18.25454409689032</v>
+        <v>21.52103917180635</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.70731023992661</v>
+        <v>13.00211561338448</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.3030879551779</v>
+        <v>11.78161287211827</v>
       </c>
       <c r="D23">
-        <v>5.559176673467823</v>
+        <v>5.884527783042667</v>
       </c>
       <c r="E23">
-        <v>13.43778951645375</v>
+        <v>8.973416658725817</v>
       </c>
       <c r="F23">
-        <v>24.38998081867231</v>
+        <v>17.9223002617842</v>
       </c>
       <c r="G23">
-        <v>28.86112327722689</v>
+        <v>21.57618192217791</v>
       </c>
       <c r="H23">
-        <v>14.27261487292147</v>
+        <v>7.787344366561959</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.99868578164676</v>
+        <v>27.04361662916285</v>
       </c>
       <c r="L23">
-        <v>9.17468752892777</v>
+        <v>4.932842495474244</v>
       </c>
       <c r="M23">
-        <v>18.13819783196013</v>
+        <v>21.130002397715</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.7485442663782</v>
+        <v>12.97991396892026</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.2295862299231</v>
+        <v>11.154248571436</v>
       </c>
       <c r="D24">
-        <v>5.459382243316125</v>
+        <v>5.603560730338343</v>
       </c>
       <c r="E24">
-        <v>13.47215530453035</v>
+        <v>8.765750437248728</v>
       </c>
       <c r="F24">
-        <v>24.49085981175996</v>
+        <v>17.3054629022799</v>
       </c>
       <c r="G24">
-        <v>29.05680493336271</v>
+        <v>20.77249718055323</v>
       </c>
       <c r="H24">
-        <v>14.37166491003233</v>
+        <v>7.9056647720344</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.07622753416843</v>
+        <v>25.11452062895879</v>
       </c>
       <c r="L24">
-        <v>9.217426947481981</v>
+        <v>5.01592237373981</v>
       </c>
       <c r="M24">
-        <v>17.69273884544696</v>
+        <v>19.58606890771109</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.91566233199712</v>
+        <v>12.94719864167411</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.16195720951999</v>
+        <v>10.47308330359879</v>
       </c>
       <c r="D25">
-        <v>5.348560206698385</v>
+        <v>5.284183876941305</v>
       </c>
       <c r="E25">
-        <v>13.51981326183449</v>
+        <v>8.569857201710258</v>
       </c>
       <c r="F25">
-        <v>24.63137507834882</v>
+        <v>16.73976222068799</v>
       </c>
       <c r="G25">
-        <v>29.31633069208215</v>
+        <v>20.09356760031289</v>
       </c>
       <c r="H25">
-        <v>14.48951266327271</v>
+        <v>8.07255594631588</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.01498053123629</v>
+        <v>22.86359176632414</v>
       </c>
       <c r="L25">
-        <v>9.267739841265991</v>
+        <v>5.11561136653574</v>
       </c>
       <c r="M25">
-        <v>17.2041700596169</v>
+        <v>17.78416350052331</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.11913391131329</v>
+        <v>13.01082037218479</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.970829533313594</v>
+        <v>9.358597831969325</v>
       </c>
       <c r="D2">
-        <v>5.035922591813588</v>
+        <v>6.916241228169835</v>
       </c>
       <c r="E2">
-        <v>8.448846020834036</v>
+        <v>9.842447938601834</v>
       </c>
       <c r="F2">
-        <v>16.4057610017297</v>
+        <v>22.55883677753912</v>
       </c>
       <c r="G2">
-        <v>19.74634392977673</v>
+        <v>24.96403034878817</v>
       </c>
       <c r="H2">
-        <v>8.224650962010953</v>
+        <v>2.05800606049399</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.566201132271635</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.59714650915768</v>
       </c>
       <c r="K2">
-        <v>21.05845857510627</v>
+        <v>17.30931613785197</v>
       </c>
       <c r="L2">
-        <v>5.197059246794742</v>
+        <v>6.456125726468982</v>
       </c>
       <c r="M2">
-        <v>16.3701676567615</v>
+        <v>18.56702999536721</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.16555772039384</v>
       </c>
       <c r="O2">
-        <v>13.13163994019252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>13.11965779131549</v>
+      </c>
+      <c r="Q2">
+        <v>15.9391662666005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.631948186293569</v>
+        <v>8.98410371427611</v>
       </c>
       <c r="D3">
-        <v>4.860105159518946</v>
+        <v>6.655891202544588</v>
       </c>
       <c r="E3">
-        <v>8.380748221320768</v>
+        <v>9.553964954166927</v>
       </c>
       <c r="F3">
-        <v>16.22852773123818</v>
+        <v>22.17090468949143</v>
       </c>
       <c r="G3">
-        <v>19.59969908126892</v>
+        <v>24.47329883005306</v>
       </c>
       <c r="H3">
-        <v>8.343912731568986</v>
+        <v>2.257974511606037</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.731482910018302</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.590867684136747</v>
       </c>
       <c r="K3">
-        <v>19.74254566438979</v>
+        <v>17.08951557797396</v>
       </c>
       <c r="L3">
-        <v>5.25701408074113</v>
+        <v>6.372934497163802</v>
       </c>
       <c r="M3">
-        <v>15.43256773405275</v>
+        <v>17.36857400357569</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.086443265517627</v>
       </c>
       <c r="O3">
-        <v>13.25411890269039</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>13.081014302138</v>
+      </c>
+      <c r="Q3">
+        <v>15.8271401522749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.425364389697471</v>
+        <v>8.741611584449769</v>
       </c>
       <c r="D4">
-        <v>4.74866938036093</v>
+        <v>6.491504827967757</v>
       </c>
       <c r="E4">
-        <v>8.345575793179748</v>
+        <v>9.371423899643165</v>
       </c>
       <c r="F4">
-        <v>16.14291585597004</v>
+        <v>21.93633204069209</v>
       </c>
       <c r="G4">
-        <v>19.55064124726001</v>
+        <v>24.17753679245136</v>
       </c>
       <c r="H4">
-        <v>8.424515232742054</v>
+        <v>2.385556717460332</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.838008872956727</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.589782780310493</v>
       </c>
       <c r="K4">
-        <v>18.88894659920727</v>
+        <v>16.95623889775957</v>
       </c>
       <c r="L4">
-        <v>5.296096863479501</v>
+        <v>6.320355434614047</v>
       </c>
       <c r="M4">
-        <v>14.83010784900635</v>
+        <v>16.58651078724967</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.037929934117983</v>
       </c>
       <c r="O4">
-        <v>13.34755229336051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>13.0600915849297</v>
+      </c>
+      <c r="Q4">
+        <v>15.76354415728696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.34167722995506</v>
+        <v>8.63013082446709</v>
       </c>
       <c r="D5">
-        <v>4.702425832878841</v>
+        <v>6.423585971645261</v>
       </c>
       <c r="E5">
-        <v>8.332876187426574</v>
+        <v>9.293982751964821</v>
       </c>
       <c r="F5">
-        <v>16.11368876405475</v>
+        <v>21.83573013361628</v>
       </c>
       <c r="G5">
-        <v>19.54049202943468</v>
+        <v>24.04861393743289</v>
       </c>
       <c r="H5">
-        <v>8.459132127768219</v>
+        <v>2.439156506294781</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.885752351979097</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.588452840848502</v>
       </c>
       <c r="K5">
-        <v>18.529653467168</v>
+        <v>16.89621104794999</v>
       </c>
       <c r="L5">
-        <v>5.312583922304846</v>
+        <v>6.297652653287465</v>
       </c>
       <c r="M5">
-        <v>14.57803202928623</v>
+        <v>16.25323919941214</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.01928189478708</v>
       </c>
       <c r="O5">
-        <v>13.38995233004071</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>13.05318854741739</v>
+      </c>
+      <c r="Q5">
+        <v>15.73490734135911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.327814789389107</v>
+        <v>8.599707339943444</v>
       </c>
       <c r="D6">
-        <v>4.694698208133396</v>
+        <v>6.412398865744137</v>
       </c>
       <c r="E6">
-        <v>8.330864956332324</v>
+        <v>9.278888584396956</v>
       </c>
       <c r="F6">
-        <v>16.10917190891957</v>
+        <v>21.81174558006409</v>
       </c>
       <c r="G6">
-        <v>19.53938680234159</v>
+        <v>24.01520053335383</v>
       </c>
       <c r="H6">
-        <v>8.464984852158587</v>
+        <v>2.448604450984097</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.897694251063728</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.586353475561273</v>
       </c>
       <c r="K6">
-        <v>18.4693031430021</v>
+        <v>16.87872051023574</v>
       </c>
       <c r="L6">
-        <v>5.315355153923056</v>
+        <v>6.292751611474332</v>
       </c>
       <c r="M6">
-        <v>14.53578387508576</v>
+        <v>16.1936012566791</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.017533478900353</v>
       </c>
       <c r="O6">
-        <v>13.3972466531826</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>13.05322264598268</v>
+      </c>
+      <c r="Q6">
+        <v>15.72532623307926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.424233574637036</v>
+        <v>8.708497343467018</v>
       </c>
       <c r="D7">
-        <v>4.748049033760977</v>
+        <v>6.491003240045032</v>
       </c>
       <c r="E7">
-        <v>8.345397958513438</v>
+        <v>9.364552028021283</v>
       </c>
       <c r="F7">
-        <v>16.14249901983392</v>
+        <v>21.91503353412671</v>
       </c>
       <c r="G7">
-        <v>19.55046516553967</v>
+        <v>24.14294619681434</v>
       </c>
       <c r="H7">
-        <v>8.424975024911719</v>
+        <v>2.387548601867505</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.849098899874269</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.584528908040859</v>
       </c>
       <c r="K7">
-        <v>18.88414733246667</v>
+        <v>16.93488309033219</v>
       </c>
       <c r="L7">
-        <v>5.296316957244706</v>
+        <v>6.31704336277007</v>
       </c>
       <c r="M7">
-        <v>14.82673461703195</v>
+        <v>16.57247152635547</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.041339186367964</v>
       </c>
       <c r="O7">
-        <v>13.34810693837866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>13.06314421178597</v>
+      </c>
+      <c r="Q7">
+        <v>15.74979670262341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.853745161791421</v>
+        <v>9.192204868754725</v>
       </c>
       <c r="D8">
-        <v>4.976048077214648</v>
+        <v>6.827983921481391</v>
       </c>
       <c r="E8">
-        <v>8.423967092034765</v>
+        <v>9.736721413745597</v>
       </c>
       <c r="F8">
-        <v>16.33973536886123</v>
+        <v>22.39855137757179</v>
       </c>
       <c r="G8">
-        <v>19.6870113338503</v>
+        <v>24.75126713691868</v>
       </c>
       <c r="H8">
-        <v>8.264189246358294</v>
+        <v>2.12756887693671</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.635700393884205</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.587512705943952</v>
       </c>
       <c r="K8">
-        <v>20.61421088200451</v>
+        <v>17.206432879144</v>
       </c>
       <c r="L8">
-        <v>5.217253941473284</v>
+        <v>6.423876941678874</v>
       </c>
       <c r="M8">
-        <v>16.05252493681338</v>
+        <v>18.15164019929817</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.143048309076372</v>
       </c>
       <c r="O8">
-        <v>13.16992836979252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>13.11006857446073</v>
+      </c>
+      <c r="Q8">
+        <v>15.88196300244791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.70287865820359</v>
+        <v>10.09082453544179</v>
       </c>
       <c r="D9">
-        <v>5.393872276318859</v>
+        <v>7.448883892069145</v>
       </c>
       <c r="E9">
-        <v>8.632167686190055</v>
+        <v>10.43065526619868</v>
       </c>
       <c r="F9">
-        <v>16.91724463223746</v>
+        <v>23.40659430826139</v>
       </c>
       <c r="G9">
-        <v>20.2978256677112</v>
+        <v>26.04083089654803</v>
       </c>
       <c r="H9">
-        <v>8.011511298483077</v>
+        <v>1.65307950461692</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.709360656021839</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.625335831495123</v>
       </c>
       <c r="K9">
-        <v>23.64469808469852</v>
+        <v>17.78674920268669</v>
       </c>
       <c r="L9">
-        <v>5.080742730703051</v>
+        <v>6.62636184721087</v>
       </c>
       <c r="M9">
-        <v>18.40957022589949</v>
+        <v>20.89810505107445</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.336247886336051</v>
       </c>
       <c r="O9">
-        <v>12.97715315365095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>13.21890297532527</v>
+      </c>
+      <c r="Q9">
+        <v>16.20657931036683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.32500442829101</v>
+        <v>10.6125286407404</v>
       </c>
       <c r="D10">
-        <v>5.681141131031561</v>
+        <v>7.832371985844236</v>
       </c>
       <c r="E10">
-        <v>8.819864332278964</v>
+        <v>10.79889720687463</v>
       </c>
       <c r="F10">
-        <v>17.46493389602794</v>
+        <v>24.03654179637581</v>
       </c>
       <c r="G10">
-        <v>20.97553539526408</v>
+        <v>26.85093231961329</v>
       </c>
       <c r="H10">
-        <v>7.870231228647021</v>
+        <v>1.783380958106657</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.968138289621446</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.641499024655582</v>
       </c>
       <c r="K10">
-        <v>25.6514205587887</v>
+        <v>18.13636750554556</v>
       </c>
       <c r="L10">
-        <v>4.99254770294178</v>
+        <v>6.724142684171613</v>
       </c>
       <c r="M10">
-        <v>20.01576806894168</v>
+        <v>22.65567863163746</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.42614757232207</v>
       </c>
       <c r="O10">
-        <v>12.94777889111166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>13.33232501830837</v>
+      </c>
+      <c r="Q10">
+        <v>16.40510710278764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.60663042036192</v>
+        <v>10.29310726111975</v>
       </c>
       <c r="D11">
-        <v>5.807246472337718</v>
+        <v>7.611555600520107</v>
       </c>
       <c r="E11">
-        <v>8.913100359187226</v>
+        <v>10.04633917111393</v>
       </c>
       <c r="F11">
-        <v>17.74190184372705</v>
+        <v>23.32345435090338</v>
       </c>
       <c r="G11">
-        <v>21.33643540240075</v>
+        <v>25.95693296147511</v>
       </c>
       <c r="H11">
-        <v>7.817097413974746</v>
+        <v>2.745720054651394</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.040949364941499</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.435947481712462</v>
       </c>
       <c r="K11">
-        <v>26.51709116005435</v>
+        <v>17.6401098228221</v>
       </c>
       <c r="L11">
-        <v>4.955257894986766</v>
+        <v>6.430674905300901</v>
       </c>
       <c r="M11">
-        <v>20.70858969212032</v>
+        <v>23.0947544171859</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.037703403684891</v>
       </c>
       <c r="O11">
-        <v>12.96243212991149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>13.54820223229811</v>
+      </c>
+      <c r="Q11">
+        <v>15.95958706983976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.71300755522948</v>
+        <v>9.956469895270462</v>
       </c>
       <c r="D12">
-        <v>5.854321584152737</v>
+        <v>7.340524964772155</v>
       </c>
       <c r="E12">
-        <v>8.949556513523218</v>
+        <v>9.37159316135522</v>
       </c>
       <c r="F12">
-        <v>17.8508357583635</v>
+        <v>22.60208986409114</v>
       </c>
       <c r="G12">
-        <v>21.4808115463272</v>
+        <v>25.05740227629376</v>
       </c>
       <c r="H12">
-        <v>7.79871494842305</v>
+        <v>4.061288101847074</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.047721822248997</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.26307588489346</v>
       </c>
       <c r="K12">
-        <v>26.83816204711917</v>
+        <v>17.16955656935054</v>
       </c>
       <c r="L12">
-        <v>4.941563867135969</v>
+        <v>6.207218320983653</v>
       </c>
       <c r="M12">
-        <v>20.9655608637867</v>
+        <v>23.11791827609729</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.727520500675728</v>
       </c>
       <c r="O12">
-        <v>12.97230567331698</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>13.70692666263107</v>
+      </c>
+      <c r="Q12">
+        <v>15.55221453127299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.69011025252391</v>
+        <v>9.538843696034768</v>
       </c>
       <c r="D13">
-        <v>5.844213566931375</v>
+        <v>7.009349080947322</v>
       </c>
       <c r="E13">
-        <v>8.941653588017404</v>
+        <v>8.708165966026881</v>
       </c>
       <c r="F13">
-        <v>17.82719403300755</v>
+        <v>21.79336250553643</v>
       </c>
       <c r="G13">
-        <v>21.44937287758518</v>
+        <v>24.0378825848675</v>
       </c>
       <c r="H13">
-        <v>7.802594356518233</v>
+        <v>5.462016167123053</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.007956311307243</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.096601023876174</v>
       </c>
       <c r="K13">
-        <v>26.7693125973978</v>
+        <v>16.65659520157143</v>
       </c>
       <c r="L13">
-        <v>4.944493800222075</v>
+        <v>6.02302509658896</v>
       </c>
       <c r="M13">
-        <v>20.91045608297632</v>
+        <v>22.81286394148114</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.470502128108279</v>
       </c>
       <c r="O13">
-        <v>12.96998224693617</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>13.83335930344415</v>
+      </c>
+      <c r="Q13">
+        <v>15.12692783825626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.61538786673923</v>
+        <v>9.199602626860326</v>
       </c>
       <c r="D14">
-        <v>5.811133066755305</v>
+        <v>6.747617801071443</v>
       </c>
       <c r="E14">
-        <v>8.916076476330428</v>
+        <v>8.258310361053736</v>
       </c>
       <c r="F14">
-        <v>17.75078245788168</v>
+        <v>21.18078858086129</v>
       </c>
       <c r="G14">
-        <v>21.34815813600793</v>
+        <v>23.25749818518298</v>
       </c>
       <c r="H14">
-        <v>7.815549424678496</v>
+        <v>6.488994350470928</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.960166371873663</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.982249618950355</v>
       </c>
       <c r="K14">
-        <v>26.5436406294742</v>
+        <v>16.27300082380443</v>
       </c>
       <c r="L14">
-        <v>4.954122604075593</v>
+        <v>5.91989836901921</v>
       </c>
       <c r="M14">
-        <v>20.7298384528905</v>
+        <v>22.44420126668676</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.326731126704949</v>
       </c>
       <c r="O14">
-        <v>12.96315608736335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>13.90813210228984</v>
+      </c>
+      <c r="Q14">
+        <v>14.81827493275147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.56958142736931</v>
+        <v>9.089350141717006</v>
       </c>
       <c r="D15">
-        <v>5.790781436077335</v>
+        <v>6.671164832142852</v>
       </c>
       <c r="E15">
-        <v>8.900560058511001</v>
+        <v>8.1461888282281</v>
       </c>
       <c r="F15">
-        <v>17.70450710189605</v>
+        <v>21.00827132478817</v>
       </c>
       <c r="G15">
-        <v>21.28716876873663</v>
+        <v>23.03298033979459</v>
       </c>
       <c r="H15">
-        <v>7.823715360768513</v>
+        <v>6.726885155001286</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.939527940539137</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.954702681714103</v>
       </c>
       <c r="K15">
-        <v>26.40453386261641</v>
+        <v>16.16489883061195</v>
       </c>
       <c r="L15">
-        <v>4.96007673211983</v>
+        <v>5.897336054864452</v>
       </c>
       <c r="M15">
-        <v>20.61850537676652</v>
+        <v>22.27978744997514</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.297929151588714</v>
       </c>
       <c r="O15">
-        <v>12.95954674322198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>13.9198703280158</v>
+      </c>
+      <c r="Q15">
+        <v>14.73626741537764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.30656543940217</v>
+        <v>8.919946237198525</v>
       </c>
       <c r="D16">
-        <v>5.672805964938039</v>
+        <v>6.561984661761384</v>
       </c>
       <c r="E16">
-        <v>8.81393094719599</v>
+        <v>8.104300005160303</v>
       </c>
       <c r="F16">
-        <v>17.44739803929435</v>
+        <v>20.87238249549398</v>
       </c>
       <c r="G16">
-        <v>20.95302215397731</v>
+        <v>22.84118823855801</v>
       </c>
       <c r="H16">
-        <v>7.873939208999045</v>
+        <v>6.518634378137861</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.839528660555991</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.977822112329976</v>
       </c>
       <c r="K16">
-        <v>25.59390104461731</v>
+        <v>16.10000603665779</v>
       </c>
       <c r="L16">
-        <v>4.995043280196851</v>
+        <v>5.889848393504828</v>
       </c>
       <c r="M16">
-        <v>19.96973374199293</v>
+        <v>21.59689844404401</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.311393077245977</v>
       </c>
       <c r="O16">
-        <v>12.94741046069894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>13.83926310730248</v>
+      </c>
+      <c r="Q16">
+        <v>14.7241488863528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.14480596216526</v>
+        <v>8.972748166325504</v>
       </c>
       <c r="D17">
-        <v>5.599244415270586</v>
+        <v>6.62118393562703</v>
       </c>
       <c r="E17">
-        <v>8.762813188056398</v>
+        <v>8.307158093113314</v>
       </c>
       <c r="F17">
-        <v>17.29683816677282</v>
+        <v>21.09883548803692</v>
       </c>
       <c r="G17">
-        <v>20.76163073023771</v>
+        <v>23.11760577421253</v>
       </c>
       <c r="H17">
-        <v>7.90769637173308</v>
+        <v>5.781092856200858</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.78825236871608</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.05644706136343</v>
       </c>
       <c r="K17">
-        <v>25.08454637578165</v>
+        <v>16.2556189618972</v>
       </c>
       <c r="L17">
-        <v>5.017232508794146</v>
+        <v>5.934024448149364</v>
       </c>
       <c r="M17">
-        <v>19.56207906015943</v>
+        <v>21.26707943582893</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.392571104287452</v>
       </c>
       <c r="O17">
-        <v>12.94735316248102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>13.73881459260136</v>
+      </c>
+      <c r="Q17">
+        <v>14.88018077520326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.05163946563933</v>
+        <v>9.248824217383387</v>
       </c>
       <c r="D18">
-        <v>5.556504134937069</v>
+        <v>6.832186986367376</v>
       </c>
       <c r="E18">
-        <v>8.734149584296901</v>
+        <v>8.779499097294034</v>
       </c>
       <c r="F18">
-        <v>17.21285699832325</v>
+        <v>21.67352088382819</v>
       </c>
       <c r="G18">
-        <v>20.65649422441956</v>
+        <v>23.84595817218973</v>
       </c>
       <c r="H18">
-        <v>7.928151921235988</v>
+        <v>4.525238549620158</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.771293041999005</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.194452579348528</v>
       </c>
       <c r="K18">
-        <v>24.78713316943622</v>
+        <v>16.63244271311123</v>
       </c>
       <c r="L18">
-        <v>5.030260283574563</v>
+        <v>6.055117436706114</v>
       </c>
       <c r="M18">
-        <v>19.3240409309809</v>
+        <v>21.22122404102333</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.570840086974351</v>
       </c>
       <c r="O18">
-        <v>12.94993970924852</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>13.60847685134383</v>
+      </c>
+      <c r="Q18">
+        <v>15.20570148201993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.02007546084037</v>
+        <v>9.636815315088173</v>
       </c>
       <c r="D19">
-        <v>5.541959906255197</v>
+        <v>7.147900300202792</v>
       </c>
       <c r="E19">
-        <v>8.724570666725304</v>
+        <v>9.463972799531293</v>
       </c>
       <c r="F19">
-        <v>17.18487000195115</v>
+        <v>22.44929527333026</v>
       </c>
       <c r="G19">
-        <v>20.62174099838355</v>
+        <v>24.82209128874735</v>
       </c>
       <c r="H19">
-        <v>7.935252304088166</v>
+        <v>3.031657970684388</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.793993363824776</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.361201310086519</v>
       </c>
       <c r="K19">
-        <v>24.68566929338351</v>
+        <v>17.12507534282796</v>
       </c>
       <c r="L19">
-        <v>5.034716230097746</v>
+        <v>6.2623078698014</v>
       </c>
       <c r="M19">
-        <v>19.24283120336675</v>
+        <v>21.39361688878459</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.859044495360044</v>
       </c>
       <c r="O19">
-        <v>12.95125625647079</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>13.47347405579453</v>
+      </c>
+      <c r="Q19">
+        <v>15.62023072733129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.16203919612372</v>
+        <v>10.39385357798633</v>
       </c>
       <c r="D20">
-        <v>5.60711979189566</v>
+        <v>7.732500774741212</v>
       </c>
       <c r="E20">
-        <v>8.768178226969882</v>
+        <v>10.68334900291299</v>
       </c>
       <c r="F20">
-        <v>17.31259425440453</v>
+        <v>23.80833610050912</v>
       </c>
       <c r="G20">
-        <v>20.78149145585288</v>
+        <v>26.53737717046511</v>
       </c>
       <c r="H20">
-        <v>7.903994336080792</v>
+        <v>1.697373958451464</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.910393254555581</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.619265706094835</v>
       </c>
       <c r="K20">
-        <v>25.13922786682201</v>
+        <v>17.98097545826216</v>
       </c>
       <c r="L20">
-        <v>5.01484285236648</v>
+        <v>6.688577651566931</v>
       </c>
       <c r="M20">
-        <v>19.60584326124406</v>
+        <v>22.18378851944109</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.410859140306391</v>
       </c>
       <c r="O20">
-        <v>12.94708598922957</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>13.31307620344403</v>
+      </c>
+      <c r="Q20">
+        <v>16.30871982625178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.63734342258927</v>
+        <v>10.88480492521746</v>
       </c>
       <c r="D21">
-        <v>5.820868163005977</v>
+        <v>8.08712858895635</v>
       </c>
       <c r="E21">
-        <v>8.923557737208988</v>
+        <v>11.12655843146979</v>
       </c>
       <c r="F21">
-        <v>17.77311609099347</v>
+        <v>24.48122848177058</v>
       </c>
       <c r="G21">
-        <v>21.37767719690866</v>
+        <v>27.40380807613976</v>
       </c>
       <c r="H21">
-        <v>7.811695896459542</v>
+        <v>1.94164972216521</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.110802517472072</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.677052964807013</v>
       </c>
       <c r="K21">
-        <v>26.61010845366405</v>
+        <v>18.37608802604438</v>
       </c>
       <c r="L21">
-        <v>4.951282638978289</v>
+        <v>6.827748103034673</v>
       </c>
       <c r="M21">
-        <v>20.78303590914108</v>
+        <v>23.52455882198582</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.56016123265272</v>
       </c>
       <c r="O21">
-        <v>12.96504139925245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>13.37615491044327</v>
+      </c>
+      <c r="Q21">
+        <v>16.57144452168644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.94639382969663</v>
+        <v>11.19495684087483</v>
       </c>
       <c r="D22">
-        <v>5.956604871257514</v>
+        <v>8.289353010148726</v>
       </c>
       <c r="E22">
-        <v>9.031816837796146</v>
+        <v>11.36058205513933</v>
       </c>
       <c r="F22">
-        <v>18.09772532380603</v>
+        <v>24.88689818236971</v>
       </c>
       <c r="G22">
-        <v>21.81229486625066</v>
+        <v>27.93649687911605</v>
       </c>
       <c r="H22">
-        <v>7.76157497626293</v>
+        <v>2.095237067165004</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.232940214858128</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.712185336660472</v>
       </c>
       <c r="K22">
-        <v>27.53215718178278</v>
+        <v>18.62188567316249</v>
       </c>
       <c r="L22">
-        <v>4.912240928547289</v>
+        <v>6.899279234970485</v>
       </c>
       <c r="M22">
-        <v>21.52103917180635</v>
+        <v>24.35167848024893</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.625702109090994</v>
       </c>
       <c r="O22">
-        <v>13.00211561338448</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>13.42436419410399</v>
+      </c>
+      <c r="Q22">
+        <v>16.73364711521505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.78161287211827</v>
+        <v>11.06072925924425</v>
       </c>
       <c r="D23">
-        <v>5.884527783042667</v>
+        <v>8.181569391560812</v>
       </c>
       <c r="E23">
-        <v>8.973416658725817</v>
+        <v>11.24204611322275</v>
       </c>
       <c r="F23">
-        <v>17.9223002617842</v>
+        <v>24.69136858527625</v>
       </c>
       <c r="G23">
-        <v>21.57618192217791</v>
+        <v>27.6862511200379</v>
       </c>
       <c r="H23">
-        <v>7.787344366561959</v>
+        <v>2.014789764562638</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.164502575458363</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.699150571200001</v>
       </c>
       <c r="K23">
-        <v>27.04361662916285</v>
+        <v>18.51294766243142</v>
       </c>
       <c r="L23">
-        <v>4.932842495474244</v>
+        <v>6.864417280836471</v>
       </c>
       <c r="M23">
-        <v>21.130002397715</v>
+        <v>23.92210969593847</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.586694834086816</v>
       </c>
       <c r="O23">
-        <v>12.97991396892026</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>13.39420781919833</v>
+      </c>
+      <c r="Q23">
+        <v>16.66145544898921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.154248571436</v>
+        <v>10.48091282715713</v>
       </c>
       <c r="D24">
-        <v>5.603560730338343</v>
+        <v>7.762190536607169</v>
       </c>
       <c r="E24">
-        <v>8.765750437248728</v>
+        <v>10.77133759131759</v>
       </c>
       <c r="F24">
-        <v>17.3054629022799</v>
+        <v>23.91988615258627</v>
       </c>
       <c r="G24">
-        <v>20.77249718055323</v>
+        <v>26.68961260855539</v>
       </c>
       <c r="H24">
-        <v>7.9056647720344</v>
+        <v>1.701049160107113</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.905250984431657</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.646537404641704</v>
       </c>
       <c r="K24">
-        <v>25.11452062895879</v>
+        <v>18.06685025986779</v>
       </c>
       <c r="L24">
-        <v>5.01592237373981</v>
+        <v>6.724453066505107</v>
       </c>
       <c r="M24">
-        <v>19.58606890771109</v>
+        <v>22.20319848719178</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.444807661511441</v>
       </c>
       <c r="O24">
-        <v>12.94719864167411</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>13.29219608497684</v>
+      </c>
+      <c r="Q24">
+        <v>16.37524094102401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.47308330359879</v>
+        <v>9.808130750630841</v>
       </c>
       <c r="D25">
-        <v>5.284183876941305</v>
+        <v>7.286208109784862</v>
       </c>
       <c r="E25">
-        <v>8.569857201710258</v>
+        <v>10.23859481669842</v>
       </c>
       <c r="F25">
-        <v>16.73976222068799</v>
+        <v>23.09754680569473</v>
       </c>
       <c r="G25">
-        <v>20.09356760031289</v>
+        <v>25.63239925861636</v>
       </c>
       <c r="H25">
-        <v>8.07255594631588</v>
+        <v>1.779575734409336</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.614872332253841</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.603249776423143</v>
       </c>
       <c r="K25">
-        <v>22.86359176632414</v>
+        <v>17.59303440100912</v>
       </c>
       <c r="L25">
-        <v>5.11561136653574</v>
+        <v>6.567811543633685</v>
       </c>
       <c r="M25">
-        <v>17.78416350052331</v>
+        <v>20.17956397954777</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.290419752149536</v>
       </c>
       <c r="O25">
-        <v>13.01082037218479</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.19309865068615</v>
+      </c>
+      <c r="Q25">
+        <v>16.09069537503862</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.358597831969325</v>
+        <v>8.09267728577244</v>
       </c>
       <c r="D2">
-        <v>6.916241228169835</v>
+        <v>6.932639396811975</v>
       </c>
       <c r="E2">
-        <v>9.842447938601834</v>
+        <v>9.632600362649434</v>
       </c>
       <c r="F2">
-        <v>22.55883677753912</v>
+        <v>21.81953800425191</v>
       </c>
       <c r="G2">
-        <v>24.96403034878817</v>
+        <v>23.25021339006709</v>
       </c>
       <c r="H2">
-        <v>2.05800606049399</v>
+        <v>2.004187049108744</v>
       </c>
       <c r="I2">
-        <v>2.566201132271635</v>
+        <v>2.48442625183433</v>
       </c>
       <c r="J2">
-        <v>9.59714650915768</v>
+        <v>9.737129262363176</v>
       </c>
       <c r="K2">
-        <v>17.30931613785197</v>
+        <v>16.45692014179752</v>
       </c>
       <c r="L2">
-        <v>6.456125726468982</v>
+        <v>13.87476154425732</v>
       </c>
       <c r="M2">
-        <v>18.56702999536721</v>
+        <v>10.59233956641783</v>
       </c>
       <c r="N2">
-        <v>6.16555772039384</v>
+        <v>6.326430654528448</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>18.32476605647694</v>
       </c>
       <c r="P2">
-        <v>13.11965779131549</v>
+        <v>6.39796927376462</v>
       </c>
       <c r="Q2">
-        <v>15.9391662666005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>13.19279652100525</v>
+      </c>
+      <c r="S2">
+        <v>15.4102012377997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.98410371427611</v>
+        <v>7.810171230722308</v>
       </c>
       <c r="D3">
-        <v>6.655891202544588</v>
+        <v>6.673166482945879</v>
       </c>
       <c r="E3">
-        <v>9.553964954166927</v>
+        <v>9.36768732994269</v>
       </c>
       <c r="F3">
-        <v>22.17090468949143</v>
+        <v>21.49859915879439</v>
       </c>
       <c r="G3">
-        <v>24.47329883005306</v>
+        <v>22.89396773457557</v>
       </c>
       <c r="H3">
-        <v>2.257974511606037</v>
+        <v>2.1883607674671</v>
       </c>
       <c r="I3">
-        <v>2.731482910018302</v>
+        <v>2.628984854188781</v>
       </c>
       <c r="J3">
-        <v>9.590867684136747</v>
+        <v>9.715806935474133</v>
       </c>
       <c r="K3">
-        <v>17.08951557797396</v>
+        <v>16.30269071576038</v>
       </c>
       <c r="L3">
-        <v>6.372934497163802</v>
+        <v>13.90038016341885</v>
       </c>
       <c r="M3">
-        <v>17.36857400357569</v>
+        <v>10.33092798909714</v>
       </c>
       <c r="N3">
-        <v>6.086443265517627</v>
+        <v>6.254254532073822</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>17.16423176465565</v>
       </c>
       <c r="P3">
-        <v>13.081014302138</v>
+        <v>6.312313449828457</v>
       </c>
       <c r="Q3">
-        <v>15.8271401522749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>13.12852186809648</v>
+      </c>
+      <c r="S3">
+        <v>15.34116652689811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.741611584449769</v>
+        <v>7.625429613019616</v>
       </c>
       <c r="D4">
-        <v>6.491504827967757</v>
+        <v>6.509431063145496</v>
       </c>
       <c r="E4">
-        <v>9.371423899643165</v>
+        <v>9.199963176400981</v>
       </c>
       <c r="F4">
-        <v>21.93633204069209</v>
+        <v>21.30455592924333</v>
       </c>
       <c r="G4">
-        <v>24.17753679245136</v>
+        <v>22.68336004876563</v>
       </c>
       <c r="H4">
-        <v>2.385556717460332</v>
+        <v>2.305940024573918</v>
       </c>
       <c r="I4">
-        <v>2.838008872956727</v>
+        <v>2.722575434840012</v>
       </c>
       <c r="J4">
-        <v>9.589782780310493</v>
+        <v>9.703683280118561</v>
       </c>
       <c r="K4">
-        <v>16.95623889775957</v>
+        <v>16.20876293870977</v>
       </c>
       <c r="L4">
-        <v>6.320355434614047</v>
+        <v>13.91380491861717</v>
       </c>
       <c r="M4">
-        <v>16.58651078724967</v>
+        <v>10.1873766708926</v>
       </c>
       <c r="N4">
-        <v>6.037929934117983</v>
+        <v>6.20846136077984</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>16.40692124350078</v>
       </c>
       <c r="P4">
-        <v>13.0600915849297</v>
+        <v>6.260181251060877</v>
       </c>
       <c r="Q4">
-        <v>15.76354415728696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>13.09198466519338</v>
+      </c>
+      <c r="S4">
+        <v>15.30305178805345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.63013082446709</v>
+        <v>7.538027775057651</v>
       </c>
       <c r="D5">
-        <v>6.423585971645261</v>
+        <v>6.441813087793437</v>
       </c>
       <c r="E5">
-        <v>9.293982751964821</v>
+        <v>9.12866720214112</v>
       </c>
       <c r="F5">
-        <v>21.83573013361628</v>
+        <v>21.22038572127394</v>
       </c>
       <c r="G5">
-        <v>24.04861393743289</v>
+        <v>22.58983605764162</v>
       </c>
       <c r="H5">
-        <v>2.439156506294781</v>
+        <v>2.355365084904785</v>
       </c>
       <c r="I5">
-        <v>2.885752351979097</v>
+        <v>2.765506846334048</v>
       </c>
       <c r="J5">
-        <v>9.588452840848502</v>
+        <v>9.697409730232076</v>
       </c>
       <c r="K5">
-        <v>16.89621104794999</v>
+        <v>16.16471373673437</v>
       </c>
       <c r="L5">
-        <v>6.297652653287465</v>
+        <v>13.91353112999002</v>
       </c>
       <c r="M5">
-        <v>16.25323919941214</v>
+        <v>10.12949926818445</v>
       </c>
       <c r="N5">
-        <v>6.01928189478708</v>
+        <v>6.188563057083414</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>16.08414548915512</v>
       </c>
       <c r="P5">
-        <v>13.05318854741739</v>
+        <v>6.240203528018505</v>
       </c>
       <c r="Q5">
-        <v>15.73490734135911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>13.07878780437228</v>
+      </c>
+      <c r="S5">
+        <v>15.28466436621922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.599707339943444</v>
+        <v>7.51196927814649</v>
       </c>
       <c r="D6">
-        <v>6.412398865744137</v>
+        <v>6.430683856072072</v>
       </c>
       <c r="E6">
-        <v>9.278888584396956</v>
+        <v>9.114634224182621</v>
       </c>
       <c r="F6">
-        <v>21.81174558006409</v>
+        <v>21.19923780340688</v>
       </c>
       <c r="G6">
-        <v>24.01520053335383</v>
+        <v>22.56249647215045</v>
       </c>
       <c r="H6">
-        <v>2.448604450984097</v>
+        <v>2.364090608505319</v>
       </c>
       <c r="I6">
-        <v>2.897694251063728</v>
+        <v>2.777326363486757</v>
       </c>
       <c r="J6">
-        <v>9.586353475561273</v>
+        <v>9.694458481607406</v>
       </c>
       <c r="K6">
-        <v>16.87872051023574</v>
+        <v>16.1501005114484</v>
       </c>
       <c r="L6">
-        <v>6.292751611474332</v>
+        <v>13.90715224707039</v>
       </c>
       <c r="M6">
-        <v>16.1936012566791</v>
+        <v>10.11537784020293</v>
       </c>
       <c r="N6">
-        <v>6.017533478900353</v>
+        <v>6.184172078536965</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>16.02631067034204</v>
       </c>
       <c r="P6">
-        <v>13.05322264598268</v>
+        <v>6.238291160847306</v>
       </c>
       <c r="Q6">
-        <v>15.72532623307926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>13.07781863531204</v>
+      </c>
+      <c r="S6">
+        <v>15.27689729001514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.708497343467018</v>
+        <v>7.596678361071693</v>
       </c>
       <c r="D7">
-        <v>6.491003240045032</v>
+        <v>6.511743689186917</v>
       </c>
       <c r="E7">
-        <v>9.364552028021283</v>
+        <v>9.194160230616287</v>
       </c>
       <c r="F7">
-        <v>21.91503353412671</v>
+        <v>21.27314898707814</v>
       </c>
       <c r="G7">
-        <v>24.14294619681434</v>
+        <v>22.73108128419446</v>
       </c>
       <c r="H7">
-        <v>2.387548601867505</v>
+        <v>2.308325613392635</v>
       </c>
       <c r="I7">
-        <v>2.849098899874269</v>
+        <v>2.735882374635018</v>
       </c>
       <c r="J7">
-        <v>9.584528908040859</v>
+        <v>9.663496699384515</v>
       </c>
       <c r="K7">
-        <v>16.93488309033219</v>
+        <v>16.18148786476733</v>
       </c>
       <c r="L7">
-        <v>6.31704336277007</v>
+        <v>13.89122180365266</v>
       </c>
       <c r="M7">
-        <v>16.57247152635547</v>
+        <v>10.16857268782549</v>
       </c>
       <c r="N7">
-        <v>6.041339186367964</v>
+        <v>6.204985591047241</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>16.38735064200407</v>
       </c>
       <c r="P7">
-        <v>13.06314421178597</v>
+        <v>6.263526198470615</v>
       </c>
       <c r="Q7">
-        <v>15.74979670262341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>13.09704048710651</v>
+      </c>
+      <c r="S7">
+        <v>15.28188271454978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.192204868754725</v>
+        <v>7.968865687924269</v>
       </c>
       <c r="D8">
-        <v>6.827983921481391</v>
+        <v>6.853587338116133</v>
       </c>
       <c r="E8">
-        <v>9.736721413745597</v>
+        <v>9.537974536433286</v>
       </c>
       <c r="F8">
-        <v>22.39855137757179</v>
+        <v>21.64823093684606</v>
       </c>
       <c r="G8">
-        <v>24.75126713691868</v>
+        <v>23.3503687455531</v>
       </c>
       <c r="H8">
-        <v>2.12756887693671</v>
+        <v>2.069868151239762</v>
       </c>
       <c r="I8">
-        <v>2.635700393884205</v>
+        <v>2.550645134747414</v>
       </c>
       <c r="J8">
-        <v>9.587512705943952</v>
+        <v>9.60895365575681</v>
       </c>
       <c r="K8">
-        <v>17.206432879144</v>
+        <v>16.35558805136035</v>
       </c>
       <c r="L8">
-        <v>6.423876941678874</v>
+        <v>13.84557259388383</v>
       </c>
       <c r="M8">
-        <v>18.15164019929817</v>
+        <v>10.46381494499995</v>
       </c>
       <c r="N8">
-        <v>6.143048309076372</v>
+        <v>6.297132594119548</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>17.90457317141081</v>
       </c>
       <c r="P8">
-        <v>13.11006857446073</v>
+        <v>6.372737558751412</v>
       </c>
       <c r="Q8">
-        <v>15.88196300244791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>13.18130838892073</v>
+      </c>
+      <c r="S8">
+        <v>15.34248717380251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.09082453544179</v>
+        <v>8.647544035158123</v>
       </c>
       <c r="D9">
-        <v>7.448883892069145</v>
+        <v>7.474424295274081</v>
       </c>
       <c r="E9">
-        <v>10.43065526619868</v>
+        <v>10.17590837744544</v>
       </c>
       <c r="F9">
-        <v>23.40659430826139</v>
+        <v>22.47875728074289</v>
       </c>
       <c r="G9">
-        <v>26.04083089654803</v>
+        <v>24.38206601044934</v>
       </c>
       <c r="H9">
-        <v>1.65307950461692</v>
+        <v>1.633505032134853</v>
       </c>
       <c r="I9">
-        <v>2.709360656021839</v>
+        <v>2.752660506350638</v>
       </c>
       <c r="J9">
-        <v>9.625335831495123</v>
+        <v>9.643492212974438</v>
       </c>
       <c r="K9">
-        <v>17.78674920268669</v>
+        <v>16.7621595979596</v>
       </c>
       <c r="L9">
-        <v>6.62636184721087</v>
+        <v>13.78635978591544</v>
       </c>
       <c r="M9">
-        <v>20.89810505107445</v>
+        <v>11.20803331112774</v>
       </c>
       <c r="N9">
-        <v>6.336247886336051</v>
+        <v>6.472044568531042</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>20.56184849369999</v>
       </c>
       <c r="P9">
-        <v>13.21890297532527</v>
+        <v>6.584015168279656</v>
       </c>
       <c r="Q9">
-        <v>16.20657931036683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>13.35661886394231</v>
+      </c>
+      <c r="S9">
+        <v>15.5481184147418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.6125286407404</v>
+        <v>9.045027822827173</v>
       </c>
       <c r="D10">
-        <v>7.832371985844236</v>
+        <v>7.871791724312757</v>
       </c>
       <c r="E10">
-        <v>10.79889720687463</v>
+        <v>10.51331568384861</v>
       </c>
       <c r="F10">
-        <v>24.03654179637581</v>
+        <v>22.92981332187624</v>
       </c>
       <c r="G10">
-        <v>26.85093231961329</v>
+        <v>25.47148407828659</v>
       </c>
       <c r="H10">
-        <v>1.783380958106657</v>
+        <v>1.774895573504805</v>
       </c>
       <c r="I10">
-        <v>2.968138289621446</v>
+        <v>2.978345875923282</v>
       </c>
       <c r="J10">
-        <v>9.641499024655582</v>
+        <v>9.461253221595928</v>
       </c>
       <c r="K10">
-        <v>18.13636750554556</v>
+        <v>16.95477171790088</v>
       </c>
       <c r="L10">
-        <v>6.724142684171613</v>
+        <v>13.65443755427406</v>
       </c>
       <c r="M10">
-        <v>22.65567863163746</v>
+        <v>11.72337015205203</v>
       </c>
       <c r="N10">
-        <v>6.42614757232207</v>
+        <v>6.551749059192227</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>22.23769429238541</v>
       </c>
       <c r="P10">
-        <v>13.33232501830837</v>
+        <v>6.684160499872796</v>
       </c>
       <c r="Q10">
-        <v>16.40510710278764</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>13.53105206105676</v>
+      </c>
+      <c r="S10">
+        <v>15.61811654478621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.29310726111975</v>
+        <v>8.803277829146719</v>
       </c>
       <c r="D11">
-        <v>7.611555600520107</v>
+        <v>7.678548832935948</v>
       </c>
       <c r="E11">
-        <v>10.04633917111393</v>
+        <v>9.782998906937545</v>
       </c>
       <c r="F11">
-        <v>23.32345435090338</v>
+        <v>22.11607813545962</v>
       </c>
       <c r="G11">
-        <v>25.95693296147511</v>
+        <v>25.55766078224533</v>
       </c>
       <c r="H11">
-        <v>2.745720054651394</v>
+        <v>2.73357349449537</v>
       </c>
       <c r="I11">
-        <v>3.040949364941499</v>
+        <v>3.041428958145446</v>
       </c>
       <c r="J11">
-        <v>9.435947481712462</v>
+        <v>8.91795909727945</v>
       </c>
       <c r="K11">
-        <v>17.6401098228221</v>
+        <v>16.41082292030883</v>
       </c>
       <c r="L11">
-        <v>6.430674905300901</v>
+        <v>13.14995949993391</v>
       </c>
       <c r="M11">
-        <v>23.0947544171859</v>
+        <v>11.44542314785012</v>
       </c>
       <c r="N11">
-        <v>6.037703403684891</v>
+        <v>6.278389665117212</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>22.62253228216188</v>
       </c>
       <c r="P11">
-        <v>13.54820223229811</v>
+        <v>6.264343536826081</v>
       </c>
       <c r="Q11">
-        <v>15.95958706983976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>13.7921621092168</v>
+      </c>
+      <c r="S11">
+        <v>15.09776769579426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.956469895270462</v>
+        <v>8.548067838308505</v>
       </c>
       <c r="D12">
-        <v>7.340524964772155</v>
+        <v>7.418977739821366</v>
       </c>
       <c r="E12">
-        <v>9.37159316135522</v>
+        <v>9.131340987550539</v>
       </c>
       <c r="F12">
-        <v>22.60208986409114</v>
+        <v>21.38506444791483</v>
       </c>
       <c r="G12">
-        <v>25.05740227629376</v>
+        <v>25.15200689590887</v>
       </c>
       <c r="H12">
-        <v>4.061288101847074</v>
+        <v>4.052380698044408</v>
       </c>
       <c r="I12">
-        <v>3.047721822248997</v>
+        <v>3.045937856023201</v>
       </c>
       <c r="J12">
-        <v>9.26307588489346</v>
+        <v>8.640084336719388</v>
       </c>
       <c r="K12">
-        <v>17.16955656935054</v>
+        <v>15.95796170815031</v>
       </c>
       <c r="L12">
-        <v>6.207218320983653</v>
+        <v>12.79370144312691</v>
       </c>
       <c r="M12">
-        <v>23.11791827609729</v>
+        <v>11.13156690609425</v>
       </c>
       <c r="N12">
-        <v>5.727520500675728</v>
+        <v>6.078288409766525</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>22.63206382685235</v>
       </c>
       <c r="P12">
-        <v>13.70692666263107</v>
+        <v>5.92211185386079</v>
       </c>
       <c r="Q12">
-        <v>15.55221453127299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>13.96809266347018</v>
+      </c>
+      <c r="S12">
+        <v>14.68419571392302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.538843696034768</v>
+        <v>8.217222301539074</v>
       </c>
       <c r="D13">
-        <v>7.009349080947322</v>
+        <v>7.081923997880363</v>
       </c>
       <c r="E13">
-        <v>8.708165966026881</v>
+        <v>8.492752458881043</v>
       </c>
       <c r="F13">
-        <v>21.79336250553643</v>
+        <v>20.66048494528878</v>
       </c>
       <c r="G13">
-        <v>24.0378825848675</v>
+        <v>24.08585346684316</v>
       </c>
       <c r="H13">
-        <v>5.462016167123053</v>
+        <v>5.466210754791357</v>
       </c>
       <c r="I13">
-        <v>3.007956311307243</v>
+        <v>3.011877977635627</v>
       </c>
       <c r="J13">
-        <v>9.096601023876174</v>
+        <v>8.567595604360458</v>
       </c>
       <c r="K13">
-        <v>16.65659520157143</v>
+        <v>15.53012830398981</v>
       </c>
       <c r="L13">
-        <v>6.02302509658896</v>
+        <v>12.50933850994098</v>
       </c>
       <c r="M13">
-        <v>22.81286394148114</v>
+        <v>10.75920991870032</v>
       </c>
       <c r="N13">
-        <v>5.470502128108279</v>
+        <v>5.920958722590703</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>22.3546423493932</v>
       </c>
       <c r="P13">
-        <v>13.83335930344415</v>
+        <v>5.631837350223706</v>
       </c>
       <c r="Q13">
-        <v>15.12692783825626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>14.08403583596547</v>
+      </c>
+      <c r="S13">
+        <v>14.32352424766649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.199602626860326</v>
+        <v>7.943050230825693</v>
       </c>
       <c r="D14">
-        <v>6.747617801071443</v>
+        <v>6.808676994587684</v>
       </c>
       <c r="E14">
-        <v>8.258310361053736</v>
+        <v>8.062444270269912</v>
       </c>
       <c r="F14">
-        <v>21.18078858086129</v>
+        <v>20.14732255981739</v>
       </c>
       <c r="G14">
-        <v>23.25749818518298</v>
+        <v>23.04126193864124</v>
       </c>
       <c r="H14">
-        <v>6.488994350470928</v>
+        <v>6.491062655904324</v>
       </c>
       <c r="I14">
-        <v>2.960166371873663</v>
+        <v>2.971991608969649</v>
       </c>
       <c r="J14">
-        <v>8.982249618950355</v>
+        <v>8.594934984867624</v>
       </c>
       <c r="K14">
-        <v>16.27300082380443</v>
+        <v>15.23507400481765</v>
       </c>
       <c r="L14">
-        <v>5.91989836901921</v>
+        <v>12.33507984882287</v>
       </c>
       <c r="M14">
-        <v>22.44420126668676</v>
+        <v>10.46797187061736</v>
       </c>
       <c r="N14">
-        <v>5.326731126704949</v>
+        <v>5.837555573338434</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>22.02395680002955</v>
       </c>
       <c r="P14">
-        <v>13.90813210228984</v>
+        <v>5.46469774900435</v>
       </c>
       <c r="Q14">
-        <v>14.81827493275147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>14.13883238996515</v>
+      </c>
+      <c r="S14">
+        <v>14.08991846163162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.089350141717006</v>
+        <v>7.85108937019791</v>
       </c>
       <c r="D15">
-        <v>6.671164832142852</v>
+        <v>6.726344143316705</v>
       </c>
       <c r="E15">
-        <v>8.1461888282281</v>
+        <v>7.955828844257507</v>
       </c>
       <c r="F15">
-        <v>21.00827132478817</v>
+        <v>20.01627686706962</v>
       </c>
       <c r="G15">
-        <v>23.03298033979459</v>
+        <v>22.65573385726432</v>
       </c>
       <c r="H15">
-        <v>6.726885155001286</v>
+        <v>6.728182420329118</v>
       </c>
       <c r="I15">
-        <v>2.939527940539137</v>
+        <v>2.95551440142729</v>
       </c>
       <c r="J15">
-        <v>8.954702681714103</v>
+        <v>8.634928610404797</v>
       </c>
       <c r="K15">
-        <v>16.16489883061195</v>
+        <v>15.16103835400109</v>
       </c>
       <c r="L15">
-        <v>5.897336054864452</v>
+        <v>12.30049542236859</v>
       </c>
       <c r="M15">
-        <v>22.27978744997514</v>
+        <v>10.38002380531478</v>
       </c>
       <c r="N15">
-        <v>5.297929151588714</v>
+        <v>5.82011666459938</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>21.87697024464129</v>
       </c>
       <c r="P15">
-        <v>13.9198703280158</v>
+        <v>5.430792215586313</v>
       </c>
       <c r="Q15">
-        <v>14.73626741537764</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>14.14026866587557</v>
+      </c>
+      <c r="S15">
+        <v>14.03887702451258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.919946237198525</v>
+        <v>7.698835564628522</v>
       </c>
       <c r="D16">
-        <v>6.561984661761384</v>
+        <v>6.591951218165071</v>
       </c>
       <c r="E16">
-        <v>8.104300005160303</v>
+        <v>7.918300094692864</v>
       </c>
       <c r="F16">
-        <v>20.87238249549398</v>
+        <v>20.02408390395955</v>
       </c>
       <c r="G16">
-        <v>22.84118823855801</v>
+        <v>21.68450590083851</v>
       </c>
       <c r="H16">
-        <v>6.518634378137861</v>
+        <v>6.516496900111934</v>
       </c>
       <c r="I16">
-        <v>2.839528660555991</v>
+        <v>2.87222464282855</v>
       </c>
       <c r="J16">
-        <v>8.977822112329976</v>
+        <v>8.945815482537</v>
       </c>
       <c r="K16">
-        <v>16.10000603665779</v>
+        <v>15.19909275979544</v>
       </c>
       <c r="L16">
-        <v>5.889848393504828</v>
+        <v>12.41699972058878</v>
       </c>
       <c r="M16">
-        <v>21.59689844404401</v>
+        <v>10.26997210786995</v>
       </c>
       <c r="N16">
-        <v>5.311393077245977</v>
+        <v>5.81484807008893</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>21.26362000065706</v>
       </c>
       <c r="P16">
-        <v>13.83926310730248</v>
+        <v>5.450160238261939</v>
       </c>
       <c r="Q16">
-        <v>14.7241488863528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>14.01318789210744</v>
+      </c>
+      <c r="S16">
+        <v>14.13170540705783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.972748166325504</v>
+        <v>7.732601499388942</v>
       </c>
       <c r="D17">
-        <v>6.62118393562703</v>
+        <v>6.641267209227875</v>
       </c>
       <c r="E17">
-        <v>8.307158093113314</v>
+        <v>8.113621455362418</v>
       </c>
       <c r="F17">
-        <v>21.09883548803692</v>
+        <v>20.29428506617791</v>
       </c>
       <c r="G17">
-        <v>23.11760577421253</v>
+        <v>21.6186855465234</v>
       </c>
       <c r="H17">
-        <v>5.781092856200858</v>
+        <v>5.77658190509311</v>
       </c>
       <c r="I17">
-        <v>2.78825236871608</v>
+        <v>2.829183911940268</v>
       </c>
       <c r="J17">
-        <v>9.05644706136343</v>
+        <v>9.145295692421849</v>
       </c>
       <c r="K17">
-        <v>16.2556189618972</v>
+        <v>15.37844548570272</v>
       </c>
       <c r="L17">
-        <v>5.934024448149364</v>
+        <v>12.59939373111299</v>
       </c>
       <c r="M17">
-        <v>21.26707943582893</v>
+        <v>10.33356542163407</v>
       </c>
       <c r="N17">
-        <v>5.392571104287452</v>
+        <v>5.850690225622955</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>20.95993457732692</v>
       </c>
       <c r="P17">
-        <v>13.73881459260136</v>
+        <v>5.547602252618485</v>
       </c>
       <c r="Q17">
-        <v>14.88018077520326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>13.89229064617692</v>
+      </c>
+      <c r="S17">
+        <v>14.31864108413471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.248824217383387</v>
+        <v>7.949943711959784</v>
       </c>
       <c r="D18">
-        <v>6.832186986367376</v>
+        <v>6.849196310944032</v>
       </c>
       <c r="E18">
-        <v>8.779499097294034</v>
+        <v>8.566929374946284</v>
       </c>
       <c r="F18">
-        <v>21.67352088382819</v>
+        <v>20.85354510756923</v>
       </c>
       <c r="G18">
-        <v>23.84595817218973</v>
+        <v>22.16278009377765</v>
       </c>
       <c r="H18">
-        <v>4.525238549620158</v>
+        <v>4.518849432219234</v>
       </c>
       <c r="I18">
-        <v>2.771293041999005</v>
+        <v>2.813241263361613</v>
       </c>
       <c r="J18">
-        <v>9.194452579348528</v>
+        <v>9.323132571052797</v>
       </c>
       <c r="K18">
-        <v>16.63244271311123</v>
+        <v>15.72740746249174</v>
       </c>
       <c r="L18">
-        <v>6.055117436706114</v>
+        <v>12.88272819991443</v>
       </c>
       <c r="M18">
-        <v>21.22122404102333</v>
+        <v>10.57027737123755</v>
       </c>
       <c r="N18">
-        <v>5.570840086974351</v>
+        <v>5.953756182455708</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>20.91453222027702</v>
       </c>
       <c r="P18">
-        <v>13.60847685134383</v>
+        <v>5.751707241721425</v>
       </c>
       <c r="Q18">
-        <v>15.20570148201993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>13.75545009805352</v>
+      </c>
+      <c r="S18">
+        <v>14.63186986896513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.636815315088173</v>
+        <v>8.253922860718559</v>
       </c>
       <c r="D19">
-        <v>7.147900300202792</v>
+        <v>7.165399321679462</v>
       </c>
       <c r="E19">
-        <v>9.463972799531293</v>
+        <v>9.226013581237019</v>
       </c>
       <c r="F19">
-        <v>22.44929527333026</v>
+        <v>21.57744554089242</v>
       </c>
       <c r="G19">
-        <v>24.82209128874735</v>
+        <v>23.0258498801691</v>
       </c>
       <c r="H19">
-        <v>3.031657970684388</v>
+        <v>3.023825952899701</v>
       </c>
       <c r="I19">
-        <v>2.793993363824776</v>
+        <v>2.833634082750672</v>
       </c>
       <c r="J19">
-        <v>9.361201310086519</v>
+        <v>9.485543754607969</v>
       </c>
       <c r="K19">
-        <v>17.12507534282796</v>
+        <v>16.16022913876433</v>
       </c>
       <c r="L19">
-        <v>6.2623078698014</v>
+        <v>13.20806268086131</v>
       </c>
       <c r="M19">
-        <v>21.39361688878459</v>
+        <v>10.90427047458993</v>
       </c>
       <c r="N19">
-        <v>5.859044495360044</v>
+        <v>6.136951655021504</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>21.07097281291114</v>
       </c>
       <c r="P19">
-        <v>13.47347405579453</v>
+        <v>6.070830226946978</v>
       </c>
       <c r="Q19">
-        <v>15.62023072733129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>13.62294995740492</v>
+      </c>
+      <c r="S19">
+        <v>15.00793436964731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.39385357798633</v>
+        <v>8.85428610290365</v>
       </c>
       <c r="D20">
-        <v>7.732500774741212</v>
+        <v>7.759755082214596</v>
       </c>
       <c r="E20">
-        <v>10.68334900291299</v>
+        <v>10.4031653685302</v>
       </c>
       <c r="F20">
-        <v>23.80833610050912</v>
+        <v>22.78536860426589</v>
       </c>
       <c r="G20">
-        <v>26.53737717046511</v>
+        <v>24.81199618083436</v>
       </c>
       <c r="H20">
-        <v>1.697373958451464</v>
+        <v>1.697653094755247</v>
       </c>
       <c r="I20">
-        <v>2.910393254555581</v>
+        <v>2.93413161674862</v>
       </c>
       <c r="J20">
-        <v>9.619265706094835</v>
+        <v>9.60970768058699</v>
       </c>
       <c r="K20">
-        <v>17.98097545826216</v>
+        <v>16.86650293906306</v>
       </c>
       <c r="L20">
-        <v>6.688577651566931</v>
+        <v>13.66197715407983</v>
       </c>
       <c r="M20">
-        <v>22.18378851944109</v>
+        <v>11.5552430961241</v>
       </c>
       <c r="N20">
-        <v>6.410859140306391</v>
+        <v>6.522439383681884</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>21.80301280238442</v>
       </c>
       <c r="P20">
-        <v>13.31307620344403</v>
+        <v>6.667086943191953</v>
       </c>
       <c r="Q20">
-        <v>16.30871982625178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>13.48824375251614</v>
+      </c>
+      <c r="S20">
+        <v>15.58474593971933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.88480492521746</v>
+        <v>9.281432072513581</v>
       </c>
       <c r="D21">
-        <v>8.08712858895635</v>
+        <v>8.169906889690191</v>
       </c>
       <c r="E21">
-        <v>11.12655843146979</v>
+        <v>10.83468995194533</v>
       </c>
       <c r="F21">
-        <v>24.48122848177058</v>
+        <v>23.12324903432833</v>
       </c>
       <c r="G21">
-        <v>27.40380807613976</v>
+        <v>27.31918770616936</v>
       </c>
       <c r="H21">
-        <v>1.94164972216521</v>
+        <v>1.913182516616497</v>
       </c>
       <c r="I21">
-        <v>3.110802517472072</v>
+        <v>3.101503394056285</v>
       </c>
       <c r="J21">
-        <v>9.677052964807013</v>
+        <v>8.936930882111991</v>
       </c>
       <c r="K21">
-        <v>18.37608802604438</v>
+        <v>17.00566722511571</v>
       </c>
       <c r="L21">
-        <v>6.827748103034673</v>
+        <v>13.5556825776136</v>
       </c>
       <c r="M21">
-        <v>23.52455882198582</v>
+        <v>11.95333092893141</v>
       </c>
       <c r="N21">
-        <v>6.56016123265272</v>
+        <v>6.637876683437701</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>22.99819504426604</v>
       </c>
       <c r="P21">
-        <v>13.37615491044327</v>
+        <v>6.827461792367928</v>
       </c>
       <c r="Q21">
-        <v>16.57144452168644</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>13.64121437720971</v>
+      </c>
+      <c r="S21">
+        <v>15.59327403182933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.19495684087483</v>
+        <v>9.560056836715754</v>
       </c>
       <c r="D22">
-        <v>8.289353010148726</v>
+        <v>8.41095386385622</v>
       </c>
       <c r="E22">
-        <v>11.36058205513933</v>
+        <v>11.0646821934726</v>
       </c>
       <c r="F22">
-        <v>24.88689818236971</v>
+        <v>23.30077834492679</v>
       </c>
       <c r="G22">
-        <v>27.93649687911605</v>
+        <v>29.04531630289673</v>
       </c>
       <c r="H22">
-        <v>2.095237067165004</v>
+        <v>2.048616005654548</v>
       </c>
       <c r="I22">
-        <v>3.232940214858128</v>
+        <v>3.201478058203627</v>
       </c>
       <c r="J22">
-        <v>9.712185336660472</v>
+        <v>8.512656354933803</v>
       </c>
       <c r="K22">
-        <v>18.62188567316249</v>
+        <v>17.07833952443402</v>
       </c>
       <c r="L22">
-        <v>6.899279234970485</v>
+        <v>13.47320042968523</v>
       </c>
       <c r="M22">
-        <v>24.35167848024893</v>
+        <v>12.20321567230557</v>
       </c>
       <c r="N22">
-        <v>6.625702109090994</v>
+        <v>6.695400064558696</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>23.73006518170677</v>
       </c>
       <c r="P22">
-        <v>13.42436419410399</v>
+        <v>6.898232991274917</v>
       </c>
       <c r="Q22">
-        <v>16.73364711521505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>13.75207540798268</v>
+      </c>
+      <c r="S22">
+        <v>15.57907526138214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.06072925924425</v>
+        <v>9.43405908390246</v>
       </c>
       <c r="D23">
-        <v>8.181569391560812</v>
+        <v>8.27623586166688</v>
       </c>
       <c r="E23">
-        <v>11.24204611322275</v>
+        <v>10.94579060528434</v>
       </c>
       <c r="F23">
-        <v>24.69136858527625</v>
+        <v>23.25223258253856</v>
       </c>
       <c r="G23">
-        <v>27.6862511200379</v>
+        <v>27.95480937817256</v>
       </c>
       <c r="H23">
-        <v>2.014789764562638</v>
+        <v>1.978567978268186</v>
       </c>
       <c r="I23">
-        <v>3.164502575458363</v>
+        <v>3.144169653310419</v>
       </c>
       <c r="J23">
-        <v>9.699150571200001</v>
+        <v>8.806081795733336</v>
       </c>
       <c r="K23">
-        <v>18.51294766243142</v>
+        <v>17.07753230037447</v>
       </c>
       <c r="L23">
-        <v>6.864417280836471</v>
+        <v>13.54353644627555</v>
       </c>
       <c r="M23">
-        <v>23.92210969593847</v>
+        <v>12.10077839790247</v>
       </c>
       <c r="N23">
-        <v>6.586694834086816</v>
+        <v>6.66843953650134</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>23.36198774869317</v>
       </c>
       <c r="P23">
-        <v>13.39420781919833</v>
+        <v>6.856581713731435</v>
       </c>
       <c r="Q23">
-        <v>16.66145544898921</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>13.68225399048946</v>
+      </c>
+      <c r="S23">
+        <v>15.62077427751846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.48091282715713</v>
+        <v>8.930549022119626</v>
       </c>
       <c r="D24">
-        <v>7.762190536607169</v>
+        <v>7.789113538082384</v>
       </c>
       <c r="E24">
-        <v>10.77133759131759</v>
+        <v>10.48880431080231</v>
       </c>
       <c r="F24">
-        <v>23.91988615258627</v>
+        <v>22.89301204358213</v>
       </c>
       <c r="G24">
-        <v>26.68961260855539</v>
+        <v>24.94248038662486</v>
       </c>
       <c r="H24">
-        <v>1.701049160107113</v>
+        <v>1.701085743007006</v>
       </c>
       <c r="I24">
-        <v>2.905250984431657</v>
+        <v>2.926579621881815</v>
       </c>
       <c r="J24">
-        <v>9.646537404641704</v>
+        <v>9.640399497619725</v>
       </c>
       <c r="K24">
-        <v>18.06685025986779</v>
+        <v>16.94628093216911</v>
       </c>
       <c r="L24">
-        <v>6.724453066505107</v>
+        <v>13.72320717498977</v>
       </c>
       <c r="M24">
-        <v>22.20319848719178</v>
+        <v>11.61500488193514</v>
       </c>
       <c r="N24">
-        <v>6.444807661511441</v>
+        <v>6.555763143780767</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>21.82161871488237</v>
       </c>
       <c r="P24">
-        <v>13.29219608497684</v>
+        <v>6.703463244822642</v>
       </c>
       <c r="Q24">
-        <v>16.37524094102401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>13.46664011355181</v>
+      </c>
+      <c r="S24">
+        <v>15.64799228641502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.808130750630841</v>
+        <v>8.421453076750375</v>
       </c>
       <c r="D25">
-        <v>7.286208109784862</v>
+        <v>7.308123417484376</v>
       </c>
       <c r="E25">
-        <v>10.23859481669842</v>
+        <v>9.997582682684504</v>
       </c>
       <c r="F25">
-        <v>23.09754680569473</v>
+        <v>22.23307694296936</v>
       </c>
       <c r="G25">
-        <v>25.63239925861636</v>
+        <v>23.9296966991351</v>
       </c>
       <c r="H25">
-        <v>1.779575734409336</v>
+        <v>1.749168519206044</v>
       </c>
       <c r="I25">
-        <v>2.614872332253841</v>
+        <v>2.67299093307427</v>
       </c>
       <c r="J25">
-        <v>9.603249776423143</v>
+        <v>9.672432927027849</v>
       </c>
       <c r="K25">
-        <v>17.59303440100912</v>
+        <v>16.62673825964255</v>
       </c>
       <c r="L25">
-        <v>6.567811543633685</v>
+        <v>13.78543277611909</v>
       </c>
       <c r="M25">
-        <v>20.17956397954777</v>
+        <v>10.9759857838708</v>
       </c>
       <c r="N25">
-        <v>6.290419752149536</v>
+        <v>6.421574101560969</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>19.87333129938813</v>
       </c>
       <c r="P25">
-        <v>13.19309865068615</v>
+        <v>6.533559686181348</v>
       </c>
       <c r="Q25">
-        <v>16.09069537503862</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.30999358811871</v>
+      </c>
+      <c r="S25">
+        <v>15.47692891257373</v>
       </c>
     </row>
   </sheetData>
